--- a/tabelas.xlsx
+++ b/tabelas.xlsx
@@ -14,6 +14,7 @@
     <sheet name="tbl4" sheetId="7" r:id="rId5"/>
     <sheet name="tbl5" sheetId="8" r:id="rId6"/>
     <sheet name="tbl6" sheetId="9" r:id="rId7"/>
+    <sheet name="apendiceA" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'tbl3'!$B$5:$T$32</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="133">
   <si>
     <t>Método</t>
   </si>
@@ -429,6 +430,9 @@
   </si>
   <si>
     <t>&lt; 1% 9-20</t>
+  </si>
+  <si>
+    <t>Categoria</t>
   </si>
 </sst>
 </file>
@@ -706,12 +710,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,20 +750,26 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1073,7 +1077,7 @@
   <dimension ref="B1:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1563,20 +1567,20 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="C3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="2:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="C4" s="27"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="5">
         <v>1</v>
       </c>
@@ -1849,22 +1853,22 @@
       <c r="J13" s="18"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="28" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1872,27 +1876,27 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="28">
         <f>_xlfn.RANK.EQ(D5,D$5:D$13,1)</f>
         <v>1</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="28">
         <f t="shared" ref="E16:I16" si="1">_xlfn.RANK.EQ(E5,E$5:E$13,1)</f>
         <v>4</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -1901,27 +1905,27 @@
       <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="28">
         <f t="shared" ref="D17:I24" si="2">_xlfn.RANK.EQ(D6,D$5:D$13,1)</f>
         <v>2</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F17" s="30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G17" s="30">
+      <c r="F17" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H17" s="30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="30">
+      <c r="H17" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="28">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -1930,27 +1934,27 @@
       <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E18" s="30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="30">
+      <c r="E18" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G18" s="30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H18" s="30">
+      <c r="G18" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -1959,27 +1963,27 @@
       <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="28">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="28">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -1988,27 +1992,27 @@
       <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="28">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -2017,27 +2021,27 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="28">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="28">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="28">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="28">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -2046,27 +2050,27 @@
       <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="28">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="28">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="28">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="28">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="28">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -2075,27 +2079,27 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="28">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -2104,27 +2108,27 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="28">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="28">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="28">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="28">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="28">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="28">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -2162,39 +2166,39 @@
       <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="29">
         <f>D5/$D5</f>
         <v>1</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="29">
         <f t="shared" ref="E27:I27" si="3">E5/$D5</f>
         <v>1.205894002457647</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="29">
         <f t="shared" si="3"/>
         <v>1.3742137471396509</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="29">
         <f t="shared" si="3"/>
         <v>1.4454635659156228</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="29">
         <f t="shared" si="3"/>
         <v>1.4530891857754606</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="29">
         <f t="shared" si="3"/>
         <v>1.5510792937451077</v>
       </c>
-      <c r="J27" s="32">
+      <c r="J27" s="30">
         <f>AVERAGE(D27:I27)</f>
         <v>1.3382899658389149</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="29">
         <f>_xlfn.STDEV.P(D27:I27)</f>
         <v>0.18403063589708002</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="31">
         <f>K27/J27</f>
         <v>0.13751178040232809</v>
       </c>
@@ -2203,39 +2207,39 @@
       <c r="C28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="29">
         <f t="shared" ref="D28:I35" si="4">D6/$D6</f>
         <v>1</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="29">
         <f t="shared" si="4"/>
         <v>1.0362613874033473</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="29">
         <f t="shared" si="4"/>
         <v>1.1499938371639926</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="29">
         <f t="shared" si="4"/>
         <v>1.2673317208966066</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="29">
         <f t="shared" si="4"/>
         <v>1.2800423484193193</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="29">
         <f t="shared" si="4"/>
         <v>1.3346297124974411</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J28" s="30">
         <f t="shared" ref="J28:J35" si="5">AVERAGE(D28:I28)</f>
         <v>1.1780431677301177</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="29">
         <f t="shared" ref="K28:K35" si="6">_xlfn.STDEV.P(D28:I28)</f>
         <v>0.12615059277388405</v>
       </c>
-      <c r="L28" s="33">
+      <c r="L28" s="31">
         <f t="shared" ref="L28:L35" si="7">K28/J28</f>
         <v>0.10708486431524752</v>
       </c>
@@ -2244,39 +2248,39 @@
       <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="31">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E29" s="31">
+      <c r="D29" s="29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="29">
         <f t="shared" si="4"/>
         <v>1.0185936924679888</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="29">
         <f t="shared" si="4"/>
         <v>1.1447140566608269</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="29">
         <f t="shared" si="4"/>
         <v>1.2514045001899505</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H29" s="29">
         <f t="shared" si="4"/>
         <v>1.2710289638297494</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="29">
         <f t="shared" si="4"/>
         <v>1.3459705820490984</v>
       </c>
-      <c r="J29" s="32">
+      <c r="J29" s="30">
         <f t="shared" si="5"/>
         <v>1.1719519658662689</v>
       </c>
-      <c r="K29" s="31">
+      <c r="K29" s="29">
         <f t="shared" si="6"/>
         <v>0.12925399916247526</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L29" s="31">
         <f t="shared" si="7"/>
         <v>0.11028950240885931</v>
       </c>
@@ -2285,39 +2289,39 @@
       <c r="C30" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="31">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E30" s="31">
+      <c r="D30" s="29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="29">
         <f t="shared" si="4"/>
         <v>1.1276070583616982</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="29">
         <f t="shared" si="4"/>
         <v>1.3014920360258071</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="29">
         <f t="shared" si="4"/>
         <v>1.4359511843474737</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="29">
         <f t="shared" si="4"/>
         <v>1.4721080616406654</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="29">
         <f t="shared" si="4"/>
         <v>1.5801026181644524</v>
       </c>
-      <c r="J30" s="32">
+      <c r="J30" s="30">
         <f t="shared" si="5"/>
         <v>1.3195434930900161</v>
       </c>
-      <c r="K30" s="31">
+      <c r="K30" s="29">
         <f t="shared" si="6"/>
         <v>0.20165616358669491</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="31">
         <f t="shared" si="7"/>
         <v>0.15282267287338169</v>
       </c>
@@ -2326,39 +2330,39 @@
       <c r="C31" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="31">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E31" s="31">
+      <c r="D31" s="29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="29">
         <f t="shared" si="4"/>
         <v>0.96287368673095985</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="29">
         <f t="shared" si="4"/>
         <v>1.0777604968355092</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="29">
         <f t="shared" si="4"/>
         <v>1.1477789048038116</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="29">
         <f t="shared" si="4"/>
         <v>1.1461054745873163</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I31" s="29">
         <f t="shared" si="4"/>
         <v>1.1976834093888791</v>
       </c>
-      <c r="J31" s="32">
+      <c r="J31" s="30">
         <f t="shared" si="5"/>
         <v>1.0887003287244126</v>
       </c>
-      <c r="K31" s="31">
+      <c r="K31" s="29">
         <f t="shared" si="6"/>
         <v>8.41454225999579E-2</v>
       </c>
-      <c r="L31" s="33">
+      <c r="L31" s="31">
         <f t="shared" si="7"/>
         <v>7.7289792590168299E-2</v>
       </c>
@@ -2367,39 +2371,39 @@
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="31">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E32" s="31">
+      <c r="D32" s="29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="29">
         <f t="shared" si="4"/>
         <v>0.98772985687592874</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="29">
         <f t="shared" si="4"/>
         <v>1.0706960452710585</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="29">
         <f t="shared" si="4"/>
         <v>1.1429911373703689</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="29">
         <f t="shared" si="4"/>
         <v>1.1792801922027598</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I32" s="29">
         <f t="shared" si="4"/>
         <v>1.238909582205691</v>
       </c>
-      <c r="J32" s="32">
+      <c r="J32" s="30">
         <f t="shared" si="5"/>
         <v>1.1032678023209679</v>
       </c>
-      <c r="K32" s="31">
+      <c r="K32" s="29">
         <f t="shared" si="6"/>
         <v>9.2040475158546284E-2</v>
       </c>
-      <c r="L32" s="33">
+      <c r="L32" s="31">
         <f t="shared" si="7"/>
         <v>8.3425325170297535E-2</v>
       </c>
@@ -2408,39 +2412,39 @@
       <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="31">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E33" s="31">
+      <c r="D33" s="29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="29">
         <f t="shared" si="4"/>
         <v>1.0801171615314775</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="29">
         <f t="shared" si="4"/>
         <v>1.2965811673711884</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="29">
         <f t="shared" si="4"/>
         <v>1.5158388661756703</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="29">
         <f t="shared" si="4"/>
         <v>1.4608740503383768</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="29">
         <f t="shared" si="4"/>
         <v>1.5242870955075294</v>
       </c>
-      <c r="J33" s="32">
+      <c r="J33" s="30">
         <f t="shared" si="5"/>
         <v>1.3129497234873737</v>
       </c>
-      <c r="K33" s="31">
+      <c r="K33" s="29">
         <f t="shared" si="6"/>
         <v>0.20821685669616966</v>
       </c>
-      <c r="L33" s="33">
+      <c r="L33" s="31">
         <f t="shared" si="7"/>
         <v>0.15858707532464933</v>
       </c>
@@ -2449,39 +2453,39 @@
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="31">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E34" s="31">
+      <c r="D34" s="29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E34" s="29">
         <f t="shared" si="4"/>
         <v>0.94670157627471074</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="29">
         <f t="shared" si="4"/>
         <v>1.1071772922547354</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="29">
         <f t="shared" si="4"/>
         <v>1.2491718511035321</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="29">
         <f t="shared" si="4"/>
         <v>1.318242929699184</v>
       </c>
-      <c r="I34" s="31">
+      <c r="I34" s="29">
         <f t="shared" si="4"/>
         <v>1.4277830329084902</v>
       </c>
-      <c r="J34" s="32">
+      <c r="J34" s="30">
         <f t="shared" si="5"/>
         <v>1.1748461137067754</v>
       </c>
-      <c r="K34" s="31">
+      <c r="K34" s="29">
         <f t="shared" si="6"/>
         <v>0.17188378341520508</v>
       </c>
-      <c r="L34" s="33">
+      <c r="L34" s="31">
         <f t="shared" si="7"/>
         <v>0.14630323189553043</v>
       </c>
@@ -2490,39 +2494,39 @@
       <c r="C35" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="31">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E35" s="31">
+      <c r="D35" s="29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E35" s="29">
         <f t="shared" si="4"/>
         <v>0.99749911441383698</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="29">
         <f t="shared" si="4"/>
         <v>1.0220949258985206</v>
       </c>
-      <c r="G35" s="31">
+      <c r="G35" s="29">
         <f t="shared" si="4"/>
         <v>1.0318099092316277</v>
       </c>
-      <c r="H35" s="31">
+      <c r="H35" s="29">
         <f t="shared" si="4"/>
         <v>1.1612284582576426</v>
       </c>
-      <c r="I35" s="31">
+      <c r="I35" s="29">
         <f t="shared" si="4"/>
         <v>1.2152516335801078</v>
       </c>
-      <c r="J35" s="32">
+      <c r="J35" s="30">
         <f t="shared" si="5"/>
         <v>1.071314006896956</v>
       </c>
-      <c r="K35" s="31">
+      <c r="K35" s="29">
         <f t="shared" si="6"/>
         <v>8.4970648400244167E-2</v>
       </c>
-      <c r="L35" s="33">
+      <c r="L35" s="31">
         <f t="shared" si="7"/>
         <v>7.9314419351577695E-2</v>
       </c>
@@ -2560,20 +2564,20 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="C3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="2:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="C4" s="27"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="5">
         <v>1</v>
       </c>
@@ -2619,7 +2623,7 @@
       <c r="I5" s="7">
         <v>0.22222222222222199</v>
       </c>
-      <c r="J5" s="29"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -2647,7 +2651,7 @@
       <c r="I6" s="7">
         <v>0.18518518518518501</v>
       </c>
-      <c r="J6" s="29"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -2675,7 +2679,7 @@
       <c r="I7" s="7">
         <v>0.148148148148148</v>
       </c>
-      <c r="J7" s="29"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -2703,7 +2707,7 @@
       <c r="I8" s="7">
         <v>7.4074074074074098E-2</v>
       </c>
-      <c r="J8" s="29"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -2731,7 +2735,7 @@
       <c r="I9" s="7">
         <v>0.11111111111111099</v>
       </c>
-      <c r="J9" s="29"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -2759,7 +2763,7 @@
       <c r="I10" s="9">
         <v>0</v>
       </c>
-      <c r="J10" s="29"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -2787,7 +2791,7 @@
       <c r="I11" s="9">
         <v>7.4074074074074098E-2</v>
       </c>
-      <c r="J11" s="29"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -2815,7 +2819,7 @@
       <c r="I12" s="7">
         <v>0.148148148148148</v>
       </c>
-      <c r="J12" s="29"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -2843,25 +2847,25 @@
       <c r="I13" s="8">
         <v>3.7037037037037E-2</v>
       </c>
-      <c r="J13" s="29"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="28" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2869,27 +2873,27 @@
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="28">
         <f>_xlfn.RANK.EQ(D5,D$5:D$13,0)</f>
         <v>1</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="28">
         <f t="shared" ref="E16:I16" si="1">_xlfn.RANK.EQ(E5,E$5:E$13,0)</f>
         <v>4</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H16" s="30">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I16" s="30">
+      <c r="H16" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="28">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2898,27 +2902,27 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="28">
         <f t="shared" ref="D17:I24" si="2">_xlfn.RANK.EQ(D6,D$5:D$13,0)</f>
         <v>2</v>
       </c>
-      <c r="E17" s="30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="30">
+      <c r="E17" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G17" s="30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H17" s="30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="30">
+      <c r="G17" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -2927,27 +2931,27 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="28">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -2962,27 +2966,27 @@
       <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="28">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -2997,27 +3001,27 @@
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="28">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F20" s="30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G20" s="30">
+      <c r="F20" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="28">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -3032,27 +3036,27 @@
       <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="28">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="28">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="28">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="28">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -3067,27 +3071,27 @@
       <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="28">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -3102,27 +3106,27 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="28">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="28">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -3137,27 +3141,27 @@
       <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="28">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="28">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="28">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -3229,42 +3233,42 @@
       </c>
     </row>
     <row r="3" spans="2:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="E3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
     </row>
     <row r="4" spans="2:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="27"/>
-      <c r="E4" s="44" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="44" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="46" t="s">
         <v>26</v>
       </c>
@@ -3273,7 +3277,7 @@
       <c r="R4" s="46"/>
     </row>
     <row r="5" spans="2:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="27"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="2" t="s">
         <v>123</v>
       </c>
@@ -3312,13 +3316,13 @@
       <c r="R5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="T5" s="47" t="s">
+      <c r="T5" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="U5" s="47" t="s">
+      <c r="U5" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="V5" s="47" t="s">
+      <c r="V5" s="42" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3329,64 +3333,64 @@
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="34" t="str">
+      <c r="D6" s="32" t="str">
         <f t="shared" ref="D6:D32" si="0">CONCATENATE(VLOOKUP(C6,desc_estados,2,FALSE)," (",C6,")"," - ",VLOOKUP(B6,desc_modelos,2,FALSE))</f>
         <v>Acre (AC) - ARIMA</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="33">
         <v>3987783589</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="33">
         <v>3759704303.93785</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="33">
         <f>E6-F6</f>
         <v>228079285.06215</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="34">
         <f>G6/E6</f>
         <v>5.7194499142653954E-2</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35">
+      <c r="I6" s="33"/>
+      <c r="J6" s="33">
         <v>4231274721</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="33">
         <v>3910368071.49721</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="33">
         <f>J6-K6</f>
         <v>320906649.50278997</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="34">
         <f>L6/J6</f>
         <v>7.5841601092483155E-2</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35">
+      <c r="N6" s="33"/>
+      <c r="O6" s="33">
         <v>4267230697</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6" s="33">
         <v>4072950067.4910798</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="33">
         <f>O6-P6</f>
         <v>194280629.50892019</v>
       </c>
-      <c r="R6" s="36">
+      <c r="R6" s="34">
         <f>Q6/O6</f>
         <v>4.5528503918362252E-2</v>
       </c>
       <c r="T6" s="18" t="b">
-        <f>ABS(H6)&lt;1%</f>
+        <f t="shared" ref="T6:T32" si="1">ABS(H6)&lt;1%</f>
         <v>0</v>
       </c>
       <c r="U6" s="18" t="b">
-        <f>ABS(M6)&lt;1%</f>
+        <f t="shared" ref="U6:U32" si="2">ABS(M6)&lt;1%</f>
         <v>0</v>
       </c>
       <c r="V6" s="18" t="b">
-        <f>ABS(R6)&lt;1%</f>
+        <f t="shared" ref="V6:V32" si="3">ABS(R6)&lt;1%</f>
         <v>0</v>
       </c>
     </row>
@@ -3397,64 +3401,64 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="34" t="str">
+      <c r="D7" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Alagoas (AL) - Ingênuo</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="33">
         <v>5703610531</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="33">
         <v>5453588773</v>
       </c>
-      <c r="G7" s="35">
-        <f t="shared" ref="G7:G32" si="1">E7-F7</f>
+      <c r="G7" s="33">
+        <f t="shared" ref="G7:G32" si="4">E7-F7</f>
         <v>250021758</v>
       </c>
-      <c r="H7" s="36">
-        <f t="shared" ref="H7:H32" si="2">G7/E7</f>
+      <c r="H7" s="34">
+        <f t="shared" ref="H7:H32" si="5">G7/E7</f>
         <v>4.3835699622387141E-2</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35">
+      <c r="I7" s="33"/>
+      <c r="J7" s="33">
         <v>5808701514</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="33">
         <v>5537807845</v>
       </c>
-      <c r="L7" s="35">
-        <f t="shared" ref="L7:L32" si="3">J7-K7</f>
+      <c r="L7" s="33">
+        <f t="shared" ref="L7:L32" si="6">J7-K7</f>
         <v>270893669</v>
       </c>
-      <c r="M7" s="36">
-        <f t="shared" ref="M7:M32" si="4">L7/J7</f>
+      <c r="M7" s="34">
+        <f t="shared" ref="M7:M32" si="7">L7/J7</f>
         <v>4.6635839067836117E-2</v>
       </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35">
+      <c r="N7" s="33"/>
+      <c r="O7" s="33">
         <v>5969712768</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P7" s="33">
         <v>5622026917</v>
       </c>
-      <c r="Q7" s="35">
-        <f t="shared" ref="Q7:Q32" si="5">O7-P7</f>
+      <c r="Q7" s="33">
+        <f t="shared" ref="Q7:Q32" si="8">O7-P7</f>
         <v>347685851</v>
       </c>
-      <c r="R7" s="36">
-        <f t="shared" ref="R7:R32" si="6">Q7/O7</f>
+      <c r="R7" s="34">
+        <f t="shared" ref="R7:R32" si="9">Q7/O7</f>
         <v>5.824163816787508E-2</v>
       </c>
       <c r="T7" s="18" t="b">
-        <f>ABS(H7)&lt;1%</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U7" s="18" t="b">
-        <f>ABS(M7)&lt;1%</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V7" s="18" t="b">
-        <f>ABS(R7)&lt;1%</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3465,64 +3469,64 @@
       <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="34" t="str">
+      <c r="D8" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Amazonas (AM) - VAR</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="33">
         <v>11078182793</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="33">
         <v>10203945534.4461</v>
       </c>
-      <c r="G8" s="35">
-        <f t="shared" si="1"/>
+      <c r="G8" s="33">
+        <f t="shared" si="4"/>
         <v>874237258.55389977</v>
       </c>
-      <c r="H8" s="36">
-        <f t="shared" si="2"/>
+      <c r="H8" s="34">
+        <f t="shared" si="5"/>
         <v>7.8915222368988736E-2</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35">
+      <c r="I8" s="33"/>
+      <c r="J8" s="33">
         <v>11129106801</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="33">
         <v>10641791882.8032</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="33">
+        <f t="shared" si="6"/>
+        <v>487314918.19680023</v>
+      </c>
+      <c r="M8" s="34">
+        <f t="shared" si="7"/>
+        <v>4.3787423996417468E-2</v>
+      </c>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33">
+        <v>11039956265</v>
+      </c>
+      <c r="P8" s="33">
+        <v>11124493947.041401</v>
+      </c>
+      <c r="Q8" s="33">
+        <f t="shared" si="8"/>
+        <v>-84537682.041400909</v>
+      </c>
+      <c r="R8" s="34">
+        <f t="shared" si="9"/>
+        <v>-7.6574290705671479E-3</v>
+      </c>
+      <c r="T8" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>487314918.19680023</v>
-      </c>
-      <c r="M8" s="36">
-        <f t="shared" si="4"/>
-        <v>4.3787423996417468E-2</v>
-      </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35">
-        <v>11039956265</v>
-      </c>
-      <c r="P8" s="35">
-        <v>11124493947.041401</v>
-      </c>
-      <c r="Q8" s="35">
-        <f t="shared" si="5"/>
-        <v>-84537682.041400909</v>
-      </c>
-      <c r="R8" s="36">
-        <f t="shared" si="6"/>
-        <v>-7.6574290705671479E-3</v>
-      </c>
-      <c r="T8" s="18" t="b">
-        <f>ABS(H8)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="18" t="b">
-        <f>ABS(M8)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="18" t="b">
-        <f>ABS(R8)&lt;1%</f>
         <v>1</v>
       </c>
     </row>
@@ -3533,64 +3537,64 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="34" t="str">
+      <c r="D9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Amapá (AP) - STAR</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="33">
         <v>3667660686</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>3245736849.6123099</v>
       </c>
-      <c r="G9" s="35">
-        <f t="shared" si="1"/>
+      <c r="G9" s="33">
+        <f t="shared" si="4"/>
         <v>421923836.38769007</v>
       </c>
-      <c r="H9" s="36">
-        <f t="shared" si="2"/>
+      <c r="H9" s="34">
+        <f t="shared" si="5"/>
         <v>0.11503895057638112</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35">
+      <c r="I9" s="33"/>
+      <c r="J9" s="33">
         <v>3974292342</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="33">
         <v>3418982057.18998</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="33">
+        <f t="shared" si="6"/>
+        <v>555310284.81001997</v>
+      </c>
+      <c r="M9" s="34">
+        <f t="shared" si="7"/>
+        <v>0.13972557552989895</v>
+      </c>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33">
+        <v>4020130041</v>
+      </c>
+      <c r="P9" s="33">
+        <v>3627188556.35221</v>
+      </c>
+      <c r="Q9" s="33">
+        <f t="shared" si="8"/>
+        <v>392941484.64778996</v>
+      </c>
+      <c r="R9" s="34">
+        <f t="shared" si="9"/>
+        <v>9.774347611652047E-2</v>
+      </c>
+      <c r="T9" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>555310284.81001997</v>
-      </c>
-      <c r="M9" s="36">
-        <f t="shared" si="4"/>
-        <v>0.13972557552989895</v>
-      </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35">
-        <v>4020130041</v>
-      </c>
-      <c r="P9" s="35">
-        <v>3627188556.35221</v>
-      </c>
-      <c r="Q9" s="35">
-        <f t="shared" si="5"/>
-        <v>392941484.64778996</v>
-      </c>
-      <c r="R9" s="36">
-        <f t="shared" si="6"/>
-        <v>9.774347611652047E-2</v>
-      </c>
-      <c r="T9" s="18" t="b">
-        <f>ABS(H9)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="18" t="b">
-        <f>ABS(M9)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="18" t="b">
-        <f>ABS(R9)&lt;1%</f>
         <v>0</v>
       </c>
     </row>
@@ -3601,64 +3605,64 @@
       <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="34" t="str">
+      <c r="D10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Bahia (BA) - VAR</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="35">
         <v>24353053904</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="35">
         <v>23190899520.770699</v>
       </c>
-      <c r="G10" s="37">
-        <f t="shared" si="1"/>
+      <c r="G10" s="35">
+        <f t="shared" si="4"/>
         <v>1162154383.2293015</v>
       </c>
-      <c r="H10" s="38">
-        <f t="shared" si="2"/>
+      <c r="H10" s="36">
+        <f t="shared" si="5"/>
         <v>4.772109435681153E-2</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37">
+      <c r="I10" s="35"/>
+      <c r="J10" s="35">
         <v>25909656415</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="35">
         <v>24033832288.322102</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="35">
+        <f t="shared" si="6"/>
+        <v>1875824126.6778984</v>
+      </c>
+      <c r="M10" s="36">
+        <f t="shared" si="7"/>
+        <v>7.2398649238432922E-2</v>
+      </c>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35">
+        <v>25870525220</v>
+      </c>
+      <c r="P10" s="35">
+        <v>25009682773.907398</v>
+      </c>
+      <c r="Q10" s="35">
+        <f t="shared" si="8"/>
+        <v>860842446.09260178</v>
+      </c>
+      <c r="R10" s="36">
+        <f t="shared" si="9"/>
+        <v>3.3275027807595545E-2</v>
+      </c>
+      <c r="T10" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>1875824126.6778984</v>
-      </c>
-      <c r="M10" s="38">
-        <f t="shared" si="4"/>
-        <v>7.2398649238432922E-2</v>
-      </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37">
-        <v>25870525220</v>
-      </c>
-      <c r="P10" s="37">
-        <v>25009682773.907398</v>
-      </c>
-      <c r="Q10" s="37">
-        <f t="shared" si="5"/>
-        <v>860842446.09260178</v>
-      </c>
-      <c r="R10" s="38">
-        <f t="shared" si="6"/>
-        <v>3.3275027807595545E-2</v>
-      </c>
-      <c r="T10" s="18" t="b">
-        <f>ABS(H10)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="18" t="b">
-        <f>ABS(M10)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="18" t="b">
-        <f>ABS(R10)&lt;1%</f>
         <v>0</v>
       </c>
     </row>
@@ -3669,64 +3673,64 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="34" t="str">
+      <c r="D11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Ceará (CE) - ARIMA</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="33">
         <v>13782967946</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="33">
         <v>13376878387.691401</v>
       </c>
-      <c r="G11" s="35">
-        <f t="shared" si="1"/>
+      <c r="G11" s="33">
+        <f t="shared" si="4"/>
         <v>406089558.30859947</v>
       </c>
-      <c r="H11" s="36">
-        <f t="shared" si="2"/>
+      <c r="H11" s="34">
+        <f t="shared" si="5"/>
         <v>2.9463143199607602E-2</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35">
+      <c r="I11" s="33"/>
+      <c r="J11" s="33">
         <v>14150077865</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="33">
         <v>13943722402.646601</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="33">
+        <f t="shared" si="6"/>
+        <v>206355462.35339928</v>
+      </c>
+      <c r="M11" s="34">
+        <f t="shared" si="7"/>
+        <v>1.4583344651679715E-2</v>
+      </c>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33">
+        <v>14418477506</v>
+      </c>
+      <c r="P11" s="33">
+        <v>14392087271.0415</v>
+      </c>
+      <c r="Q11" s="33">
+        <f t="shared" si="8"/>
+        <v>26390234.958499908</v>
+      </c>
+      <c r="R11" s="34">
+        <f t="shared" si="9"/>
+        <v>1.8303066289431786E-3</v>
+      </c>
+      <c r="T11" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>206355462.35339928</v>
-      </c>
-      <c r="M11" s="36">
-        <f t="shared" si="4"/>
-        <v>1.4583344651679715E-2</v>
-      </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35">
-        <v>14418477506</v>
-      </c>
-      <c r="P11" s="35">
-        <v>14392087271.0415</v>
-      </c>
-      <c r="Q11" s="35">
-        <f t="shared" si="5"/>
-        <v>26390234.958499908</v>
-      </c>
-      <c r="R11" s="36">
-        <f t="shared" si="6"/>
-        <v>1.8303066289431786E-3</v>
-      </c>
-      <c r="T11" s="18" t="b">
-        <f>ABS(H11)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="18" t="b">
-        <f>ABS(M11)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="18" t="b">
-        <f>ABS(R11)&lt;1%</f>
         <v>1</v>
       </c>
     </row>
@@ -3737,64 +3741,64 @@
       <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="34" t="str">
+      <c r="D12" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Distrito Federal (DF) - ARIMA</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="33">
         <v>16324875462</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="33">
         <v>16179687672.7188</v>
       </c>
-      <c r="G12" s="35">
-        <f t="shared" si="1"/>
+      <c r="G12" s="33">
+        <f t="shared" si="4"/>
         <v>145187789.28120041</v>
       </c>
-      <c r="H12" s="36">
-        <f t="shared" si="2"/>
+      <c r="H12" s="34">
+        <f t="shared" si="5"/>
         <v>8.8936537138772816E-3</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35">
+      <c r="I12" s="33"/>
+      <c r="J12" s="33">
         <v>16802787775</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="33">
         <v>16781893075.1012</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="33">
+        <f t="shared" si="6"/>
+        <v>20894699.898799896</v>
+      </c>
+      <c r="M12" s="34">
+        <f t="shared" si="7"/>
+        <v>1.2435257874224919E-3</v>
+      </c>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33">
+        <v>17504269623</v>
+      </c>
+      <c r="P12" s="33">
+        <v>17322290079.7612</v>
+      </c>
+      <c r="Q12" s="33">
+        <f t="shared" si="8"/>
+        <v>181979543.23880005</v>
+      </c>
+      <c r="R12" s="34">
+        <f t="shared" si="9"/>
+        <v>1.0396294570307879E-2</v>
+      </c>
+      <c r="T12" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>20894699.898799896</v>
-      </c>
-      <c r="M12" s="36">
-        <f t="shared" si="4"/>
-        <v>1.2435257874224919E-3</v>
-      </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35">
-        <v>17504269623</v>
-      </c>
-      <c r="P12" s="35">
-        <v>17322290079.7612</v>
-      </c>
-      <c r="Q12" s="35">
-        <f t="shared" si="5"/>
-        <v>181979543.23880005</v>
-      </c>
-      <c r="R12" s="36">
-        <f t="shared" si="6"/>
-        <v>1.0396294570307879E-2</v>
-      </c>
-      <c r="T12" s="18" t="b">
-        <f>ABS(H12)&lt;1%</f>
-        <v>1</v>
-      </c>
-      <c r="U12" s="18" t="b">
-        <f>ABS(M12)&lt;1%</f>
-        <v>1</v>
-      </c>
-      <c r="V12" s="18" t="b">
-        <f>ABS(R12)&lt;1%</f>
         <v>0</v>
       </c>
     </row>
@@ -3805,64 +3809,64 @@
       <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="34" t="str">
+      <c r="D13" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Espírito Santo (ES) - Ingênuo</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="33">
         <v>11113552703</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="33">
         <v>11068177345</v>
       </c>
-      <c r="G13" s="35">
-        <f t="shared" si="1"/>
+      <c r="G13" s="33">
+        <f t="shared" si="4"/>
         <v>45375358</v>
       </c>
-      <c r="H13" s="36">
-        <f t="shared" si="2"/>
+      <c r="H13" s="34">
+        <f t="shared" si="5"/>
         <v>4.0828850334917064E-3</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35">
+      <c r="I13" s="33"/>
+      <c r="J13" s="33">
         <v>11545498468</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="33">
         <v>11171124173</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="33">
+        <f t="shared" si="6"/>
+        <v>374374295</v>
+      </c>
+      <c r="M13" s="34">
+        <f t="shared" si="7"/>
+        <v>3.2425996680665793E-2</v>
+      </c>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33">
+        <v>11798288649</v>
+      </c>
+      <c r="P13" s="33">
+        <v>11274071001</v>
+      </c>
+      <c r="Q13" s="33">
+        <f t="shared" si="8"/>
+        <v>524217648</v>
+      </c>
+      <c r="R13" s="34">
+        <f t="shared" si="9"/>
+        <v>4.443166832033997E-2</v>
+      </c>
+      <c r="T13" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>374374295</v>
-      </c>
-      <c r="M13" s="36">
-        <f t="shared" si="4"/>
-        <v>3.2425996680665793E-2</v>
-      </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35">
-        <v>11798288649</v>
-      </c>
-      <c r="P13" s="35">
-        <v>11274071001</v>
-      </c>
-      <c r="Q13" s="35">
-        <f t="shared" si="5"/>
-        <v>524217648</v>
-      </c>
-      <c r="R13" s="36">
-        <f t="shared" si="6"/>
-        <v>4.443166832033997E-2</v>
-      </c>
-      <c r="T13" s="18" t="b">
-        <f>ABS(H13)&lt;1%</f>
-        <v>1</v>
-      </c>
-      <c r="U13" s="18" t="b">
-        <f>ABS(M13)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="18" t="b">
-        <f>ABS(R13)&lt;1%</f>
         <v>0</v>
       </c>
     </row>
@@ -3873,64 +3877,64 @@
       <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="34" t="str">
+      <c r="D14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Goiás (GO) - Suavização Exponencial</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="33">
         <v>15694109579</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="33">
         <v>15120316887.5779</v>
       </c>
-      <c r="G14" s="35">
-        <f t="shared" si="1"/>
+      <c r="G14" s="33">
+        <f t="shared" si="4"/>
         <v>573792691.42210007</v>
       </c>
-      <c r="H14" s="36">
-        <f t="shared" si="2"/>
+      <c r="H14" s="34">
+        <f t="shared" si="5"/>
         <v>3.656102237172356E-2</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35">
+      <c r="I14" s="33"/>
+      <c r="J14" s="33">
         <v>16247984612</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="33">
         <v>15755327550.7027</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="33">
+        <f t="shared" si="6"/>
+        <v>492657061.29730034</v>
+      </c>
+      <c r="M14" s="34">
+        <f t="shared" si="7"/>
+        <v>3.0321118160922367E-2</v>
+      </c>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33">
+        <v>16656492151</v>
+      </c>
+      <c r="P14" s="33">
+        <v>16427847615.1525</v>
+      </c>
+      <c r="Q14" s="33">
+        <f t="shared" si="8"/>
+        <v>228644535.84749985</v>
+      </c>
+      <c r="R14" s="34">
+        <f t="shared" si="9"/>
+        <v>1.3727052117259443E-2</v>
+      </c>
+      <c r="T14" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>492657061.29730034</v>
-      </c>
-      <c r="M14" s="36">
-        <f t="shared" si="4"/>
-        <v>3.0321118160922367E-2</v>
-      </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35">
-        <v>16656492151</v>
-      </c>
-      <c r="P14" s="35">
-        <v>16427847615.1525</v>
-      </c>
-      <c r="Q14" s="35">
-        <f t="shared" si="5"/>
-        <v>228644535.84749985</v>
-      </c>
-      <c r="R14" s="36">
-        <f t="shared" si="6"/>
-        <v>1.3727052117259443E-2</v>
-      </c>
-      <c r="T14" s="18" t="b">
-        <f>ABS(H14)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="18" t="b">
-        <f>ABS(M14)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="18" t="b">
-        <f>ABS(R14)&lt;1%</f>
         <v>0</v>
       </c>
     </row>
@@ -3941,64 +3945,64 @@
       <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="34" t="str">
+      <c r="D15" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Maranhão (MA) - LSTVAR</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="33">
         <v>9515573171</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="33">
         <v>9338450220.4051208</v>
       </c>
-      <c r="G15" s="35">
-        <f t="shared" si="1"/>
+      <c r="G15" s="33">
+        <f t="shared" si="4"/>
         <v>177122950.59487915</v>
       </c>
-      <c r="H15" s="36">
-        <f t="shared" si="2"/>
+      <c r="H15" s="34">
+        <f t="shared" si="5"/>
         <v>1.8614007523444345E-2</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35">
+      <c r="I15" s="33"/>
+      <c r="J15" s="33">
         <v>9964478380</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="33">
         <v>9665954899.6947403</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="33">
+        <f t="shared" si="6"/>
+        <v>298523480.3052597</v>
+      </c>
+      <c r="M15" s="34">
+        <f t="shared" si="7"/>
+        <v>2.9958766422177707E-2</v>
+      </c>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33">
+        <v>10147462440</v>
+      </c>
+      <c r="P15" s="33">
+        <v>10181284320.585699</v>
+      </c>
+      <c r="Q15" s="33">
+        <f t="shared" si="8"/>
+        <v>-33821880.585699081</v>
+      </c>
+      <c r="R15" s="34">
+        <f t="shared" si="9"/>
+        <v>-3.333038263081177E-3</v>
+      </c>
+      <c r="T15" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>298523480.3052597</v>
-      </c>
-      <c r="M15" s="36">
-        <f t="shared" si="4"/>
-        <v>2.9958766422177707E-2</v>
-      </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35">
-        <v>10147462440</v>
-      </c>
-      <c r="P15" s="35">
-        <v>10181284320.585699</v>
-      </c>
-      <c r="Q15" s="35">
-        <f t="shared" si="5"/>
-        <v>-33821880.585699081</v>
-      </c>
-      <c r="R15" s="36">
-        <f t="shared" si="6"/>
-        <v>-3.333038263081177E-3</v>
-      </c>
-      <c r="T15" s="18" t="b">
-        <f>ABS(H15)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="18" t="b">
-        <f>ABS(M15)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="18" t="b">
-        <f>ABS(R15)&lt;1%</f>
         <v>1</v>
       </c>
     </row>
@@ -4009,64 +4013,64 @@
       <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="34" t="str">
+      <c r="D16" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Minas Gerais (MG) - Ingênuo</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="33">
         <v>44817070386</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="33">
         <v>45598606442</v>
       </c>
-      <c r="G16" s="35">
-        <f t="shared" si="1"/>
+      <c r="G16" s="33">
+        <f t="shared" si="4"/>
         <v>-781536056</v>
       </c>
-      <c r="H16" s="36">
-        <f t="shared" si="2"/>
+      <c r="H16" s="34">
+        <f t="shared" si="5"/>
         <v>-1.743835661877928E-2</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35">
+      <c r="I16" s="33"/>
+      <c r="J16" s="33">
         <v>46167216680</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="33">
         <v>46924122170</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="33">
+        <f t="shared" si="6"/>
+        <v>-756905490</v>
+      </c>
+      <c r="M16" s="34">
+        <f t="shared" si="7"/>
+        <v>-1.6394869442668773E-2</v>
+      </c>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33">
+        <v>47644235435</v>
+      </c>
+      <c r="P16" s="33">
+        <v>48249637898</v>
+      </c>
+      <c r="Q16" s="33">
+        <f t="shared" si="8"/>
+        <v>-605402463</v>
+      </c>
+      <c r="R16" s="34">
+        <f t="shared" si="9"/>
+        <v>-1.270673057238871E-2</v>
+      </c>
+      <c r="T16" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>-756905490</v>
-      </c>
-      <c r="M16" s="36">
-        <f t="shared" si="4"/>
-        <v>-1.6394869442668773E-2</v>
-      </c>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35">
-        <v>47644235435</v>
-      </c>
-      <c r="P16" s="35">
-        <v>48249637898</v>
-      </c>
-      <c r="Q16" s="35">
-        <f t="shared" si="5"/>
-        <v>-605402463</v>
-      </c>
-      <c r="R16" s="36">
-        <f t="shared" si="6"/>
-        <v>-1.270673057238871E-2</v>
-      </c>
-      <c r="T16" s="18" t="b">
-        <f>ABS(H16)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="18" t="b">
-        <f>ABS(M16)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="18" t="b">
-        <f>ABS(R16)&lt;1%</f>
         <v>0</v>
       </c>
     </row>
@@ -4077,64 +4081,64 @@
       <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="34" t="str">
+      <c r="D17" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Mato Grosso do Sul (MS) - ARIMA</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="33">
         <v>7458205423</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="33">
         <v>7514644214.5561705</v>
       </c>
-      <c r="G17" s="35">
-        <f t="shared" si="1"/>
+      <c r="G17" s="33">
+        <f t="shared" si="4"/>
         <v>-56438791.556170464</v>
       </c>
-      <c r="H17" s="36">
-        <f t="shared" si="2"/>
+      <c r="H17" s="34">
+        <f t="shared" si="5"/>
         <v>-7.5673420555193611E-3</v>
       </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35">
+      <c r="I17" s="33"/>
+      <c r="J17" s="33">
         <v>7672817712</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="33">
         <v>7753034730.3893404</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="33">
+        <f t="shared" si="6"/>
+        <v>-80217018.389340401</v>
+      </c>
+      <c r="M17" s="34">
+        <f t="shared" si="7"/>
+        <v>-1.0454701440891003E-2</v>
+      </c>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33">
+        <v>8095589257</v>
+      </c>
+      <c r="P17" s="33">
+        <v>8059518799.6814299</v>
+      </c>
+      <c r="Q17" s="33">
+        <f t="shared" si="8"/>
+        <v>36070457.318570137</v>
+      </c>
+      <c r="R17" s="34">
+        <f t="shared" si="9"/>
+        <v>4.4555690973799283E-3</v>
+      </c>
+      <c r="T17" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U17" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>-80217018.389340401</v>
-      </c>
-      <c r="M17" s="36">
-        <f t="shared" si="4"/>
-        <v>-1.0454701440891003E-2</v>
-      </c>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35">
-        <v>8095589257</v>
-      </c>
-      <c r="P17" s="35">
-        <v>8059518799.6814299</v>
-      </c>
-      <c r="Q17" s="35">
-        <f t="shared" si="5"/>
-        <v>36070457.318570137</v>
-      </c>
-      <c r="R17" s="36">
-        <f t="shared" si="6"/>
-        <v>4.4555690973799283E-3</v>
-      </c>
-      <c r="T17" s="18" t="b">
-        <f>ABS(H17)&lt;1%</f>
-        <v>1</v>
-      </c>
-      <c r="U17" s="18" t="b">
-        <f>ABS(M17)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="18" t="b">
-        <f>ABS(R17)&lt;1%</f>
         <v>1</v>
       </c>
     </row>
@@ -4145,64 +4149,64 @@
       <c r="C18" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="34" t="str">
+      <c r="D18" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Mato Grosso (MT) - Ingênuo</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="33">
         <v>10348320959</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="33">
         <v>10302270827</v>
       </c>
-      <c r="G18" s="35">
-        <f t="shared" si="1"/>
+      <c r="G18" s="33">
+        <f t="shared" si="4"/>
         <v>46050132</v>
       </c>
-      <c r="H18" s="36">
-        <f t="shared" si="2"/>
+      <c r="H18" s="34">
+        <f t="shared" si="5"/>
         <v>4.4500100240851062E-3</v>
       </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35">
+      <c r="I18" s="33"/>
+      <c r="J18" s="33">
         <v>10615089796</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="33">
         <v>10645628839</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="33">
+        <f t="shared" si="6"/>
+        <v>-30539043</v>
+      </c>
+      <c r="M18" s="34">
+        <f t="shared" si="7"/>
+        <v>-2.8769462705353454E-3</v>
+      </c>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33">
+        <v>10927731310</v>
+      </c>
+      <c r="P18" s="33">
+        <v>10988986851</v>
+      </c>
+      <c r="Q18" s="33">
+        <f t="shared" si="8"/>
+        <v>-61255541</v>
+      </c>
+      <c r="R18" s="34">
+        <f t="shared" si="9"/>
+        <v>-5.6055130989489891E-3</v>
+      </c>
+      <c r="T18" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U18" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V18" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>-30539043</v>
-      </c>
-      <c r="M18" s="36">
-        <f t="shared" si="4"/>
-        <v>-2.8769462705353454E-3</v>
-      </c>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35">
-        <v>10927731310</v>
-      </c>
-      <c r="P18" s="35">
-        <v>10988986851</v>
-      </c>
-      <c r="Q18" s="35">
-        <f t="shared" si="5"/>
-        <v>-61255541</v>
-      </c>
-      <c r="R18" s="36">
-        <f t="shared" si="6"/>
-        <v>-5.6055130989489891E-3</v>
-      </c>
-      <c r="T18" s="18" t="b">
-        <f>ABS(H18)&lt;1%</f>
-        <v>1</v>
-      </c>
-      <c r="U18" s="18" t="b">
-        <f>ABS(M18)&lt;1%</f>
-        <v>1</v>
-      </c>
-      <c r="V18" s="18" t="b">
-        <f>ABS(R18)&lt;1%</f>
         <v>1</v>
       </c>
     </row>
@@ -4213,64 +4217,64 @@
       <c r="C19" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="34" t="str">
+      <c r="D19" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Pará (PA) - Combinação - Média</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="33">
         <v>13909776547</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="33">
         <v>13894499682.102501</v>
       </c>
-      <c r="G19" s="35">
-        <f t="shared" si="1"/>
+      <c r="G19" s="33">
+        <f t="shared" si="4"/>
         <v>15276864.897499084</v>
       </c>
-      <c r="H19" s="36">
-        <f t="shared" si="2"/>
+      <c r="H19" s="34">
+        <f t="shared" si="5"/>
         <v>1.0982825529856504E-3</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35">
+      <c r="I19" s="33"/>
+      <c r="J19" s="33">
         <v>14666623767</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="33">
         <v>14398528965.3241</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="33">
+        <f t="shared" si="6"/>
+        <v>268094801.67589951</v>
+      </c>
+      <c r="M19" s="34">
+        <f t="shared" si="7"/>
+        <v>1.8279244489731481E-2</v>
+      </c>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33">
+        <v>15092463545</v>
+      </c>
+      <c r="P19" s="33">
+        <v>15056769900.1957</v>
+      </c>
+      <c r="Q19" s="33">
+        <f t="shared" si="8"/>
+        <v>35693644.804300308</v>
+      </c>
+      <c r="R19" s="34">
+        <f t="shared" si="9"/>
+        <v>2.3649979142156218E-3</v>
+      </c>
+      <c r="T19" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U19" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>268094801.67589951</v>
-      </c>
-      <c r="M19" s="36">
-        <f t="shared" si="4"/>
-        <v>1.8279244489731481E-2</v>
-      </c>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35">
-        <v>15092463545</v>
-      </c>
-      <c r="P19" s="35">
-        <v>15056769900.1957</v>
-      </c>
-      <c r="Q19" s="35">
-        <f t="shared" si="5"/>
-        <v>35693644.804300308</v>
-      </c>
-      <c r="R19" s="36">
-        <f t="shared" si="6"/>
-        <v>2.3649979142156218E-3</v>
-      </c>
-      <c r="T19" s="18" t="b">
-        <f>ABS(H19)&lt;1%</f>
-        <v>1</v>
-      </c>
-      <c r="U19" s="18" t="b">
-        <f>ABS(M19)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="18" t="b">
-        <f>ABS(R19)&lt;1%</f>
         <v>1</v>
       </c>
     </row>
@@ -4281,64 +4285,64 @@
       <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="34" t="str">
+      <c r="D20" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Paraíba (PB) - LSTVAR</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="33">
         <v>7321042887</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="33">
         <v>6962858515.8741598</v>
       </c>
-      <c r="G20" s="35">
-        <f t="shared" si="1"/>
+      <c r="G20" s="33">
+        <f t="shared" si="4"/>
         <v>358184371.12584019</v>
       </c>
-      <c r="H20" s="36">
-        <f t="shared" si="2"/>
+      <c r="H20" s="34">
+        <f t="shared" si="5"/>
         <v>4.892532070285633E-2</v>
       </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35">
+      <c r="I20" s="33"/>
+      <c r="J20" s="33">
         <v>7429427646</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="33">
         <v>7159557919.1259403</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="33">
+        <f t="shared" si="6"/>
+        <v>269869726.87405968</v>
+      </c>
+      <c r="M20" s="34">
+        <f t="shared" si="7"/>
+        <v>3.632443032396411E-2</v>
+      </c>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33">
+        <v>7399789000</v>
+      </c>
+      <c r="P20" s="33">
+        <v>7411676313.5803604</v>
+      </c>
+      <c r="Q20" s="33">
+        <f t="shared" si="8"/>
+        <v>-11887313.580360413</v>
+      </c>
+      <c r="R20" s="34">
+        <f t="shared" si="9"/>
+        <v>-1.6064395323110447E-3</v>
+      </c>
+      <c r="T20" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>269869726.87405968</v>
-      </c>
-      <c r="M20" s="36">
-        <f t="shared" si="4"/>
-        <v>3.632443032396411E-2</v>
-      </c>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35">
-        <v>7399789000</v>
-      </c>
-      <c r="P20" s="35">
-        <v>7411676313.5803604</v>
-      </c>
-      <c r="Q20" s="35">
-        <f t="shared" si="5"/>
-        <v>-11887313.580360413</v>
-      </c>
-      <c r="R20" s="36">
-        <f t="shared" si="6"/>
-        <v>-1.6064395323110447E-3</v>
-      </c>
-      <c r="T20" s="18" t="b">
-        <f>ABS(H20)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="18" t="b">
-        <f>ABS(M20)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="18" t="b">
-        <f>ABS(R20)&lt;1%</f>
         <v>1</v>
       </c>
     </row>
@@ -4349,64 +4353,64 @@
       <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="34" t="str">
+      <c r="D21" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Pernambuco (PE) - Ingênuo</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="33">
         <v>17620988974</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="33">
         <v>17472892832</v>
       </c>
-      <c r="G21" s="35">
-        <f t="shared" si="1"/>
+      <c r="G21" s="33">
+        <f t="shared" si="4"/>
         <v>148096142</v>
       </c>
-      <c r="H21" s="36">
-        <f t="shared" si="2"/>
+      <c r="H21" s="34">
+        <f t="shared" si="5"/>
         <v>8.4045306548070492E-3</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35">
+      <c r="I21" s="33"/>
+      <c r="J21" s="33">
         <v>18035561538</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="33">
         <v>17937380428</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="33">
+        <f t="shared" si="6"/>
+        <v>98181110</v>
+      </c>
+      <c r="M21" s="34">
+        <f t="shared" si="7"/>
+        <v>5.4437512130208676E-3</v>
+      </c>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33">
+        <v>18475020081</v>
+      </c>
+      <c r="P21" s="33">
+        <v>18401868024</v>
+      </c>
+      <c r="Q21" s="33">
+        <f t="shared" si="8"/>
+        <v>73152057</v>
+      </c>
+      <c r="R21" s="34">
+        <f t="shared" si="9"/>
+        <v>3.959511636754902E-3</v>
+      </c>
+      <c r="T21" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U21" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V21" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>98181110</v>
-      </c>
-      <c r="M21" s="36">
-        <f t="shared" si="4"/>
-        <v>5.4437512130208676E-3</v>
-      </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35">
-        <v>18475020081</v>
-      </c>
-      <c r="P21" s="35">
-        <v>18401868024</v>
-      </c>
-      <c r="Q21" s="35">
-        <f t="shared" si="5"/>
-        <v>73152057</v>
-      </c>
-      <c r="R21" s="36">
-        <f t="shared" si="6"/>
-        <v>3.959511636754902E-3</v>
-      </c>
-      <c r="T21" s="18" t="b">
-        <f>ABS(H21)&lt;1%</f>
-        <v>1</v>
-      </c>
-      <c r="U21" s="18" t="b">
-        <f>ABS(M21)&lt;1%</f>
-        <v>1</v>
-      </c>
-      <c r="V21" s="18" t="b">
-        <f>ABS(R21)&lt;1%</f>
         <v>1</v>
       </c>
     </row>
@@ -4417,64 +4421,64 @@
       <c r="C22" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="34" t="str">
+      <c r="D22" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Piauí (PI) - Suavização Exponencial</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="33">
         <v>5988232342</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="33">
         <v>5525310747.0829296</v>
       </c>
-      <c r="G22" s="35">
-        <f t="shared" si="1"/>
+      <c r="G22" s="33">
+        <f t="shared" si="4"/>
         <v>462921594.91707039</v>
       </c>
-      <c r="H22" s="36">
-        <f t="shared" si="2"/>
+      <c r="H22" s="34">
+        <f t="shared" si="5"/>
         <v>7.7305216043514424E-2</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35">
+      <c r="I22" s="33"/>
+      <c r="J22" s="33">
         <v>6103599501</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="33">
         <v>5738810019.5382996</v>
       </c>
-      <c r="L22" s="35">
+      <c r="L22" s="33">
+        <f t="shared" si="6"/>
+        <v>364789481.46170044</v>
+      </c>
+      <c r="M22" s="34">
+        <f t="shared" si="7"/>
+        <v>5.9766287319791243E-2</v>
+      </c>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33">
+        <v>6201506915</v>
+      </c>
+      <c r="P22" s="33">
+        <v>5992564058.7663097</v>
+      </c>
+      <c r="Q22" s="33">
+        <f t="shared" si="8"/>
+        <v>208942856.23369026</v>
+      </c>
+      <c r="R22" s="34">
+        <f t="shared" si="9"/>
+        <v>3.3692271749033477E-2</v>
+      </c>
+      <c r="T22" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>364789481.46170044</v>
-      </c>
-      <c r="M22" s="36">
-        <f t="shared" si="4"/>
-        <v>5.9766287319791243E-2</v>
-      </c>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35">
-        <v>6201506915</v>
-      </c>
-      <c r="P22" s="35">
-        <v>5992564058.7663097</v>
-      </c>
-      <c r="Q22" s="35">
-        <f t="shared" si="5"/>
-        <v>208942856.23369026</v>
-      </c>
-      <c r="R22" s="36">
-        <f t="shared" si="6"/>
-        <v>3.3692271749033477E-2</v>
-      </c>
-      <c r="T22" s="18" t="b">
-        <f>ABS(H22)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="18" t="b">
-        <f>ABS(M22)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="18" t="b">
-        <f>ABS(R22)&lt;1%</f>
         <v>0</v>
       </c>
     </row>
@@ -4485,64 +4489,64 @@
       <c r="C23" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="34" t="str">
+      <c r="D23" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Paraná (PR) - Combinação - Mediana</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="33">
         <v>26425191550</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="33">
         <v>25331666780.244301</v>
       </c>
-      <c r="G23" s="35">
-        <f t="shared" si="1"/>
+      <c r="G23" s="33">
+        <f t="shared" si="4"/>
         <v>1093524769.7556992</v>
       </c>
-      <c r="H23" s="36">
-        <f t="shared" si="2"/>
+      <c r="H23" s="34">
+        <f t="shared" si="5"/>
         <v>4.1381905129679153E-2</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35">
+      <c r="I23" s="33"/>
+      <c r="J23" s="33">
         <v>26970684144</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="33">
         <v>26260128305.6679</v>
       </c>
-      <c r="L23" s="35">
+      <c r="L23" s="33">
+        <f t="shared" si="6"/>
+        <v>710555838.33209991</v>
+      </c>
+      <c r="M23" s="34">
+        <f t="shared" si="7"/>
+        <v>2.6345488106210048E-2</v>
+      </c>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33">
+        <v>28336698865</v>
+      </c>
+      <c r="P23" s="33">
+        <v>27263494359.515499</v>
+      </c>
+      <c r="Q23" s="33">
+        <f t="shared" si="8"/>
+        <v>1073204505.4845009</v>
+      </c>
+      <c r="R23" s="34">
+        <f t="shared" si="9"/>
+        <v>3.7873307353033514E-2</v>
+      </c>
+      <c r="T23" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>710555838.33209991</v>
-      </c>
-      <c r="M23" s="36">
-        <f t="shared" si="4"/>
-        <v>2.6345488106210048E-2</v>
-      </c>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35">
-        <v>28336698865</v>
-      </c>
-      <c r="P23" s="35">
-        <v>27263494359.515499</v>
-      </c>
-      <c r="Q23" s="35">
-        <f t="shared" si="5"/>
-        <v>1073204505.4845009</v>
-      </c>
-      <c r="R23" s="36">
-        <f t="shared" si="6"/>
-        <v>3.7873307353033514E-2</v>
-      </c>
-      <c r="T23" s="18" t="b">
-        <f>ABS(H23)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="18" t="b">
-        <f>ABS(M23)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="18" t="b">
-        <f>ABS(R23)&lt;1%</f>
         <v>0</v>
       </c>
     </row>
@@ -4553,64 +4557,64 @@
       <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="34" t="str">
+      <c r="D24" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Rio de Janeiro (RJ) - Suavização Exponencial</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="33">
         <v>47388341226</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="33">
         <v>44994776897.203201</v>
       </c>
-      <c r="G24" s="35">
-        <f t="shared" si="1"/>
+      <c r="G24" s="33">
+        <f t="shared" si="4"/>
         <v>2393564328.7967987</v>
       </c>
-      <c r="H24" s="36">
-        <f t="shared" si="2"/>
+      <c r="H24" s="34">
+        <f t="shared" si="5"/>
         <v>5.0509561357753328E-2</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35">
+      <c r="I24" s="33"/>
+      <c r="J24" s="33">
         <v>47896309609</v>
       </c>
-      <c r="K24" s="35">
+      <c r="K24" s="33">
         <v>45837245001.614899</v>
       </c>
-      <c r="L24" s="35">
+      <c r="L24" s="33">
+        <f t="shared" si="6"/>
+        <v>2059064607.3851013</v>
+      </c>
+      <c r="M24" s="34">
+        <f t="shared" si="7"/>
+        <v>4.2990047128770664E-2</v>
+      </c>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33">
+        <v>46045517774</v>
+      </c>
+      <c r="P24" s="33">
+        <v>46692451411.647797</v>
+      </c>
+      <c r="Q24" s="33">
+        <f t="shared" si="8"/>
+        <v>-646933637.64779663</v>
+      </c>
+      <c r="R24" s="34">
+        <f t="shared" si="9"/>
+        <v>-1.4049872146580428E-2</v>
+      </c>
+      <c r="T24" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>2059064607.3851013</v>
-      </c>
-      <c r="M24" s="36">
-        <f t="shared" si="4"/>
-        <v>4.2990047128770664E-2</v>
-      </c>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35">
-        <v>46045517774</v>
-      </c>
-      <c r="P24" s="35">
-        <v>46692451411.647797</v>
-      </c>
-      <c r="Q24" s="35">
-        <f t="shared" si="5"/>
-        <v>-646933637.64779663</v>
-      </c>
-      <c r="R24" s="36">
-        <f t="shared" si="6"/>
-        <v>-1.4049872146580428E-2</v>
-      </c>
-      <c r="T24" s="18" t="b">
-        <f>ABS(H24)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="18" t="b">
-        <f>ABS(M24)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V24" s="18" t="b">
-        <f>ABS(R24)&lt;1%</f>
         <v>0</v>
       </c>
     </row>
@@ -4621,64 +4625,64 @@
       <c r="C25" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="34" t="str">
+      <c r="D25" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Rio Grande do Norte (RN) - Ingênuo</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="33">
         <v>7390910156</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="33">
         <v>7532728092</v>
       </c>
-      <c r="G25" s="35">
-        <f t="shared" si="1"/>
+      <c r="G25" s="33">
+        <f t="shared" si="4"/>
         <v>-141817936</v>
       </c>
-      <c r="H25" s="36">
-        <f t="shared" si="2"/>
+      <c r="H25" s="34">
+        <f t="shared" si="5"/>
         <v>-1.9188155857214832E-2</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35">
+      <c r="I25" s="33"/>
+      <c r="J25" s="33">
         <v>7384502065</v>
       </c>
-      <c r="K25" s="35">
+      <c r="K25" s="33">
         <v>7750012388</v>
       </c>
-      <c r="L25" s="35">
+      <c r="L25" s="33">
+        <f t="shared" si="6"/>
+        <v>-365510323</v>
+      </c>
+      <c r="M25" s="34">
+        <f t="shared" si="7"/>
+        <v>-4.9496949121646698E-2</v>
+      </c>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33">
+        <v>7386145244</v>
+      </c>
+      <c r="P25" s="33">
+        <v>7967296684</v>
+      </c>
+      <c r="Q25" s="33">
+        <f t="shared" si="8"/>
+        <v>-581151440</v>
+      </c>
+      <c r="R25" s="34">
+        <f t="shared" si="9"/>
+        <v>-7.8681290551670072E-2</v>
+      </c>
+      <c r="T25" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>-365510323</v>
-      </c>
-      <c r="M25" s="36">
-        <f t="shared" si="4"/>
-        <v>-4.9496949121646698E-2</v>
-      </c>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35">
-        <v>7386145244</v>
-      </c>
-      <c r="P25" s="35">
-        <v>7967296684</v>
-      </c>
-      <c r="Q25" s="35">
-        <f t="shared" si="5"/>
-        <v>-581151440</v>
-      </c>
-      <c r="R25" s="36">
-        <f t="shared" si="6"/>
-        <v>-7.8681290551670072E-2</v>
-      </c>
-      <c r="T25" s="18" t="b">
-        <f>ABS(H25)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="18" t="b">
-        <f>ABS(M25)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="18" t="b">
-        <f>ABS(R25)&lt;1%</f>
         <v>0</v>
       </c>
     </row>
@@ -4689,64 +4693,64 @@
       <c r="C26" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="34" t="str">
+      <c r="D26" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Rondônia (RO) - Combinação - Média</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="33">
         <v>5120655142</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="33">
         <v>4939858023.2033596</v>
       </c>
-      <c r="G26" s="35">
-        <f t="shared" si="1"/>
+      <c r="G26" s="33">
+        <f t="shared" si="4"/>
         <v>180797118.7966404</v>
       </c>
-      <c r="H26" s="36">
-        <f t="shared" si="2"/>
+      <c r="H26" s="34">
+        <f t="shared" si="5"/>
         <v>3.5307419418606961E-2</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35">
+      <c r="I26" s="33"/>
+      <c r="J26" s="33">
         <v>5340289571</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K26" s="33">
         <v>5047323148.8153801</v>
       </c>
-      <c r="L26" s="35">
+      <c r="L26" s="33">
+        <f t="shared" si="6"/>
+        <v>292966422.1846199</v>
+      </c>
+      <c r="M26" s="34">
+        <f t="shared" si="7"/>
+        <v>5.4859651015096593E-2</v>
+      </c>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33">
+        <v>5489267088</v>
+      </c>
+      <c r="P26" s="33">
+        <v>5161130028.70784</v>
+      </c>
+      <c r="Q26" s="33">
+        <f t="shared" si="8"/>
+        <v>328137059.29216003</v>
+      </c>
+      <c r="R26" s="34">
+        <f t="shared" si="9"/>
+        <v>5.9777936477074557E-2</v>
+      </c>
+      <c r="T26" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>292966422.1846199</v>
-      </c>
-      <c r="M26" s="36">
-        <f t="shared" si="4"/>
-        <v>5.4859651015096593E-2</v>
-      </c>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35">
-        <v>5489267088</v>
-      </c>
-      <c r="P26" s="35">
-        <v>5161130028.70784</v>
-      </c>
-      <c r="Q26" s="35">
-        <f t="shared" si="5"/>
-        <v>328137059.29216003</v>
-      </c>
-      <c r="R26" s="36">
-        <f t="shared" si="6"/>
-        <v>5.9777936477074557E-2</v>
-      </c>
-      <c r="T26" s="18" t="b">
-        <f>ABS(H26)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="18" t="b">
-        <f>ABS(M26)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="18" t="b">
-        <f>ABS(R26)&lt;1%</f>
         <v>0</v>
       </c>
     </row>
@@ -4757,64 +4761,64 @@
       <c r="C27" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="34" t="str">
+      <c r="D27" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Roraima (RR) - Suavização Exponencial</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="33">
         <v>2534466105</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="33">
         <v>2467823945.7203202</v>
       </c>
-      <c r="G27" s="35">
-        <f t="shared" si="1"/>
+      <c r="G27" s="33">
+        <f t="shared" si="4"/>
         <v>66642159.279679775</v>
       </c>
-      <c r="H27" s="36">
-        <f t="shared" si="2"/>
+      <c r="H27" s="34">
+        <f t="shared" si="5"/>
         <v>2.6294358069420612E-2</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35">
+      <c r="I27" s="33"/>
+      <c r="J27" s="33">
         <v>2725806697</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="33">
         <v>2528086533.7193899</v>
       </c>
-      <c r="L27" s="35">
+      <c r="L27" s="33">
+        <f t="shared" si="6"/>
+        <v>197720163.28061008</v>
+      </c>
+      <c r="M27" s="34">
+        <f t="shared" si="7"/>
+        <v>7.2536384732717563E-2</v>
+      </c>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33">
+        <v>2785293739</v>
+      </c>
+      <c r="P27" s="33">
+        <v>2593925210.9258399</v>
+      </c>
+      <c r="Q27" s="33">
+        <f t="shared" si="8"/>
+        <v>191368528.0741601</v>
+      </c>
+      <c r="R27" s="34">
+        <f t="shared" si="9"/>
+        <v>6.8706767043847539E-2</v>
+      </c>
+      <c r="T27" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>197720163.28061008</v>
-      </c>
-      <c r="M27" s="36">
-        <f t="shared" si="4"/>
-        <v>7.2536384732717563E-2</v>
-      </c>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35">
-        <v>2785293739</v>
-      </c>
-      <c r="P27" s="35">
-        <v>2593925210.9258399</v>
-      </c>
-      <c r="Q27" s="35">
-        <f t="shared" si="5"/>
-        <v>191368528.0741601</v>
-      </c>
-      <c r="R27" s="36">
-        <f t="shared" si="6"/>
-        <v>6.8706767043847539E-2</v>
-      </c>
-      <c r="T27" s="18" t="b">
-        <f>ABS(H27)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="18" t="b">
-        <f>ABS(M27)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="18" t="b">
-        <f>ABS(R27)&lt;1%</f>
         <v>0</v>
       </c>
     </row>
@@ -4825,64 +4829,64 @@
       <c r="C28" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="34" t="str">
+      <c r="D28" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Rio Grande do Sul (RS) - Suavização Exponencial</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="33">
         <v>27348107203</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="33">
         <v>27283947401.045399</v>
       </c>
-      <c r="G28" s="35">
-        <f t="shared" si="1"/>
+      <c r="G28" s="33">
+        <f t="shared" si="4"/>
         <v>64159801.954601288</v>
       </c>
-      <c r="H28" s="36">
-        <f t="shared" si="2"/>
+      <c r="H28" s="34">
+        <f t="shared" si="5"/>
         <v>2.3460417746045386E-3</v>
       </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35">
+      <c r="I28" s="33"/>
+      <c r="J28" s="33">
         <v>27691637546</v>
       </c>
-      <c r="K28" s="35">
+      <c r="K28" s="33">
         <v>28071730703.6106</v>
       </c>
-      <c r="L28" s="35">
+      <c r="L28" s="33">
+        <f t="shared" si="6"/>
+        <v>-380093157.61059952</v>
+      </c>
+      <c r="M28" s="34">
+        <f t="shared" si="7"/>
+        <v>-1.3725918410538463E-2</v>
+      </c>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33">
+        <v>28633465816</v>
+      </c>
+      <c r="P28" s="33">
+        <v>28931012052.7038</v>
+      </c>
+      <c r="Q28" s="33">
+        <f t="shared" si="8"/>
+        <v>-297546236.7038002</v>
+      </c>
+      <c r="R28" s="34">
+        <f t="shared" si="9"/>
+        <v>-1.039155506412833E-2</v>
+      </c>
+      <c r="T28" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U28" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>-380093157.61059952</v>
-      </c>
-      <c r="M28" s="36">
-        <f t="shared" si="4"/>
-        <v>-1.3725918410538463E-2</v>
-      </c>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35">
-        <v>28633465816</v>
-      </c>
-      <c r="P28" s="35">
-        <v>28931012052.7038</v>
-      </c>
-      <c r="Q28" s="35">
-        <f t="shared" si="5"/>
-        <v>-297546236.7038002</v>
-      </c>
-      <c r="R28" s="36">
-        <f t="shared" si="6"/>
-        <v>-1.039155506412833E-2</v>
-      </c>
-      <c r="T28" s="18" t="b">
-        <f>ABS(H28)&lt;1%</f>
-        <v>1</v>
-      </c>
-      <c r="U28" s="18" t="b">
-        <f>ABS(M28)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V28" s="18" t="b">
-        <f>ABS(R28)&lt;1%</f>
         <v>0</v>
       </c>
     </row>
@@ -4893,64 +4897,64 @@
       <c r="C29" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="34" t="str">
+      <c r="D29" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Santa Catarina (SC) - ARIMA</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="33">
         <v>16725862749</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="33">
         <v>16513415255.556999</v>
       </c>
-      <c r="G29" s="35">
-        <f t="shared" si="1"/>
+      <c r="G29" s="33">
+        <f t="shared" si="4"/>
         <v>212447493.44300079</v>
       </c>
-      <c r="H29" s="36">
-        <f t="shared" si="2"/>
+      <c r="H29" s="34">
+        <f t="shared" si="5"/>
         <v>1.270173602588617E-2</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35">
+      <c r="I29" s="33"/>
+      <c r="J29" s="33">
         <v>17351319941</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K29" s="33">
         <v>17139652206.7111</v>
       </c>
-      <c r="L29" s="35">
+      <c r="L29" s="33">
+        <f t="shared" si="6"/>
+        <v>211667734.28890038</v>
+      </c>
+      <c r="M29" s="34">
+        <f t="shared" si="7"/>
+        <v>1.2198941349052287E-2</v>
+      </c>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33">
+        <v>17835511027</v>
+      </c>
+      <c r="P29" s="33">
+        <v>17825507732.4412</v>
+      </c>
+      <c r="Q29" s="33">
+        <f t="shared" si="8"/>
+        <v>10003294.558799744</v>
+      </c>
+      <c r="R29" s="34">
+        <f t="shared" si="9"/>
+        <v>5.6086391601880192E-4</v>
+      </c>
+      <c r="T29" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>211667734.28890038</v>
-      </c>
-      <c r="M29" s="36">
-        <f t="shared" si="4"/>
-        <v>1.2198941349052287E-2</v>
-      </c>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35">
-        <v>17835511027</v>
-      </c>
-      <c r="P29" s="35">
-        <v>17825507732.4412</v>
-      </c>
-      <c r="Q29" s="35">
-        <f t="shared" si="5"/>
-        <v>10003294.558799744</v>
-      </c>
-      <c r="R29" s="36">
-        <f t="shared" si="6"/>
-        <v>5.6086391601880192E-4</v>
-      </c>
-      <c r="T29" s="18" t="b">
-        <f>ABS(H29)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="18" t="b">
-        <f>ABS(M29)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="18" t="b">
-        <f>ABS(R29)&lt;1%</f>
         <v>1</v>
       </c>
     </row>
@@ -4961,64 +4965,64 @@
       <c r="C30" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="34" t="str">
+      <c r="D30" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Sergipe (SE) - LSTVAR</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="33">
         <v>5721686641.04</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="33">
         <v>5522548617.0195904</v>
       </c>
-      <c r="G30" s="35">
-        <f t="shared" si="1"/>
+      <c r="G30" s="33">
+        <f t="shared" si="4"/>
         <v>199138024.02040958</v>
       </c>
-      <c r="H30" s="36">
-        <f t="shared" si="2"/>
+      <c r="H30" s="34">
+        <f t="shared" si="5"/>
         <v>3.4804077278900641E-2</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35">
+      <c r="I30" s="33"/>
+      <c r="J30" s="33">
         <v>5839875500.3100004</v>
       </c>
-      <c r="K30" s="35">
+      <c r="K30" s="33">
         <v>5682012920.9349804</v>
       </c>
-      <c r="L30" s="35">
+      <c r="L30" s="33">
+        <f t="shared" si="6"/>
+        <v>157862579.37502003</v>
+      </c>
+      <c r="M30" s="34">
+        <f t="shared" si="7"/>
+        <v>2.703183986827119E-2</v>
+      </c>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33">
+        <v>5982485349.9399996</v>
+      </c>
+      <c r="P30" s="33">
+        <v>5865972920.5351496</v>
+      </c>
+      <c r="Q30" s="33">
+        <f t="shared" si="8"/>
+        <v>116512429.40485001</v>
+      </c>
+      <c r="R30" s="34">
+        <f t="shared" si="9"/>
+        <v>1.9475589590205775E-2</v>
+      </c>
+      <c r="T30" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>157862579.37502003</v>
-      </c>
-      <c r="M30" s="36">
-        <f t="shared" si="4"/>
-        <v>2.703183986827119E-2</v>
-      </c>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35">
-        <v>5982485349.9399996</v>
-      </c>
-      <c r="P30" s="35">
-        <v>5865972920.5351496</v>
-      </c>
-      <c r="Q30" s="35">
-        <f t="shared" si="5"/>
-        <v>116512429.40485001</v>
-      </c>
-      <c r="R30" s="36">
-        <f t="shared" si="6"/>
-        <v>1.9475589590205775E-2</v>
-      </c>
-      <c r="T30" s="18" t="b">
-        <f>ABS(H30)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="18" t="b">
-        <f>ABS(M30)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V30" s="18" t="b">
-        <f>ABS(R30)&lt;1%</f>
         <v>0</v>
       </c>
     </row>
@@ -5029,64 +5033,64 @@
       <c r="C31" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="34" t="str">
+      <c r="D31" s="32" t="str">
         <f t="shared" si="0"/>
         <v>São Paulo (SP) - LSTVAR</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="37">
         <v>133955717000</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="37">
         <v>128714669513.994</v>
       </c>
-      <c r="G31" s="39">
-        <f t="shared" si="1"/>
+      <c r="G31" s="37">
+        <f t="shared" si="4"/>
         <v>5241047486.0059967</v>
       </c>
-      <c r="H31" s="36">
-        <f t="shared" si="2"/>
+      <c r="H31" s="34">
+        <f t="shared" si="5"/>
         <v>3.9125224390430431E-2</v>
       </c>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39">
+      <c r="I31" s="37"/>
+      <c r="J31" s="37">
         <v>134129209125</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="37">
         <v>132054158719.80499</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="37">
+        <f t="shared" si="6"/>
+        <v>2075050405.1950073</v>
+      </c>
+      <c r="M31" s="34">
+        <f t="shared" si="7"/>
+        <v>1.5470533366533092E-2</v>
+      </c>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37">
+        <v>135630165923</v>
+      </c>
+      <c r="P31" s="37">
+        <v>135299894813.172</v>
+      </c>
+      <c r="Q31" s="37">
+        <f t="shared" si="8"/>
+        <v>330271109.82800293</v>
+      </c>
+      <c r="R31" s="34">
+        <f t="shared" si="9"/>
+        <v>2.435085938149663E-3</v>
+      </c>
+      <c r="T31" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>2075050405.1950073</v>
-      </c>
-      <c r="M31" s="36">
-        <f t="shared" si="4"/>
-        <v>1.5470533366533092E-2</v>
-      </c>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39">
-        <v>135630165923</v>
-      </c>
-      <c r="P31" s="39">
-        <v>135299894813.172</v>
-      </c>
-      <c r="Q31" s="39">
-        <f t="shared" si="5"/>
-        <v>330271109.82800293</v>
-      </c>
-      <c r="R31" s="36">
-        <f t="shared" si="6"/>
-        <v>2.435085938149663E-3</v>
-      </c>
-      <c r="T31" s="18" t="b">
-        <f>ABS(H31)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="18" t="b">
-        <f>ABS(M31)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="18" t="b">
-        <f>ABS(R31)&lt;1%</f>
         <v>1</v>
       </c>
     </row>
@@ -5097,64 +5101,64 @@
       <c r="C32" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="40" t="str">
+      <c r="D32" s="38" t="str">
         <f t="shared" si="0"/>
         <v>Tocantins (TO) - STAR</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="39">
         <v>5636108611</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="39">
         <v>5220007202.9133301</v>
       </c>
-      <c r="G32" s="41">
-        <f t="shared" si="1"/>
+      <c r="G32" s="39">
+        <f t="shared" si="4"/>
         <v>416101408.08666992</v>
       </c>
-      <c r="H32" s="42">
-        <f t="shared" si="2"/>
+      <c r="H32" s="40">
+        <f t="shared" si="5"/>
         <v>7.3827783814272907E-2</v>
       </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41">
+      <c r="I32" s="39"/>
+      <c r="J32" s="39">
         <v>5915093679</v>
       </c>
-      <c r="K32" s="41">
+      <c r="K32" s="39">
         <v>5496907355.64466</v>
       </c>
-      <c r="L32" s="41">
+      <c r="L32" s="39">
+        <f t="shared" si="6"/>
+        <v>418186323.35534</v>
+      </c>
+      <c r="M32" s="40">
+        <f t="shared" si="7"/>
+        <v>7.0698174204747027E-2</v>
+      </c>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39">
+        <v>6071450295</v>
+      </c>
+      <c r="P32" s="39">
+        <v>5834734823.8003702</v>
+      </c>
+      <c r="Q32" s="39">
+        <f t="shared" si="8"/>
+        <v>236715471.19962978</v>
+      </c>
+      <c r="R32" s="40">
+        <f t="shared" si="9"/>
+        <v>3.8988291050421883E-2</v>
+      </c>
+      <c r="T32" s="18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="18" t="b">
         <f t="shared" si="3"/>
-        <v>418186323.35534</v>
-      </c>
-      <c r="M32" s="42">
-        <f t="shared" si="4"/>
-        <v>7.0698174204747027E-2</v>
-      </c>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41">
-        <v>6071450295</v>
-      </c>
-      <c r="P32" s="41">
-        <v>5834734823.8003702</v>
-      </c>
-      <c r="Q32" s="41">
-        <f t="shared" si="5"/>
-        <v>236715471.19962978</v>
-      </c>
-      <c r="R32" s="42">
-        <f t="shared" si="6"/>
-        <v>3.8988291050421883E-2</v>
-      </c>
-      <c r="T32" s="18" t="b">
-        <f>ABS(H32)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="18" t="b">
-        <f>ABS(M32)&lt;1%</f>
-        <v>0</v>
-      </c>
-      <c r="V32" s="18" t="b">
-        <f>ABS(R32)&lt;1%</f>
         <v>0</v>
       </c>
     </row>
@@ -5193,20 +5197,20 @@
       </c>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="F6" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="4:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="E7" s="27"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="5">
         <v>1</v>
       </c>
@@ -5362,22 +5366,22 @@
       </c>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="J15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="28" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5385,27 +5389,27 @@
       <c r="E16" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="28">
         <f>_xlfn.RANK.EQ(F8,F$8:F$12,1)</f>
         <v>1</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="28">
         <f t="shared" ref="G16:K16" si="0">_xlfn.RANK.EQ(G8,G$8:G$12,1)</f>
         <v>1</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -5414,27 +5418,27 @@
       <c r="E17" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="28">
         <f t="shared" ref="F17:K20" si="1">_xlfn.RANK.EQ(F9,F$8:F$12,1)</f>
         <v>2</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5443,27 +5447,27 @@
       <c r="E18" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5472,27 +5476,27 @@
       <c r="E19" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -5501,38 +5505,38 @@
       <c r="E20" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
     </row>
   </sheetData>
   <sortState ref="D8:K12">
@@ -5551,7 +5555,7 @@
   <dimension ref="D5:K19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5566,20 +5570,20 @@
       </c>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="F6" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="4:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="E7" s="27"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="5">
         <v>1</v>
       </c>
@@ -5726,22 +5730,22 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="28" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5749,27 +5753,27 @@
       <c r="E15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="28">
         <f>_xlfn.RANK.EQ(F8,F$8:F$11,1)</f>
         <v>1</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="28">
         <f t="shared" ref="G15:K15" si="0">_xlfn.RANK.EQ(G8,G$8:G$11,1)</f>
         <v>1</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -5778,27 +5782,27 @@
       <c r="E16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="28">
         <f t="shared" ref="F16:K18" si="1">_xlfn.RANK.EQ(F9,F$8:F$11,1)</f>
         <v>2</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5807,27 +5811,27 @@
       <c r="E17" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5836,33 +5840,33 @@
       <c r="E18" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F19" s="30"/>
+      <c r="F19" s="28"/>
     </row>
   </sheetData>
   <sortState ref="D8:K11">
@@ -5881,7 +5885,7 @@
   <dimension ref="E5:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E6" sqref="E6:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5897,24 +5901,24 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="G6" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
     </row>
     <row r="7" spans="5:12" ht="24" x14ac:dyDescent="0.25">
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -6075,22 +6079,22 @@
       <c r="L13" s="7"/>
     </row>
     <row r="15" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="J15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="L15" s="28" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6098,27 +6102,27 @@
       <c r="F16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="28">
         <f>_xlfn.RANK.EQ(G8,G$8:G$12,1)</f>
         <v>5</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="28">
         <f t="shared" ref="H16:L16" si="0">_xlfn.RANK.EQ(H8,H$8:H$12,1)</f>
         <v>5</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -6127,27 +6131,27 @@
       <c r="F17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="28">
         <f t="shared" ref="G17:L20" si="1">_xlfn.RANK.EQ(G9,G$8:G$12,1)</f>
         <v>3</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6156,27 +6160,27 @@
       <c r="F18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -6185,27 +6189,27 @@
       <c r="F19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="28">
         <f>_xlfn.RANK.EQ(I11,I$8:I$12,1)</f>
         <v>4</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -6214,27 +6218,27 @@
       <c r="F20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="30">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H20" s="30">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I20" s="30">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J20" s="30">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K20" s="30">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="30">
+      <c r="G20" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="28">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -6247,4 +6251,111 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E9:F19"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/tabelas.xlsx
+++ b/tabelas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="desc" sheetId="6" r:id="rId1"/>
@@ -504,7 +504,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,6 +579,13 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -772,7 +779,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -860,6 +867,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -7967,7 +7975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -9027,8 +9035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9090,31 +9098,31 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($B5,$C$27:$J$35,COLUMN(B:B), FALSE)</f>
-        <v>0.22222222222222199</v>
+        <v>0.222222222</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" ref="E5:J13" si="1">VLOOKUP($B5,$C$27:$J$35,COLUMN(C:C), FALSE)</f>
-        <v>0.11111111111111099</v>
+        <v>0.111111111</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
-        <v>0.22222222222222199</v>
+        <v>0.222222222</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>7.4074074074074098E-2</v>
+        <v>7.4074074000000004E-2</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="1"/>
-        <v>0.22222222222222199</v>
+        <v>0.222222222</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="1"/>
-        <v>0.37037037037037002</v>
+        <v>0.37037037</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="1"/>
-        <v>0.25925925925925902</v>
+        <v>0.25925925900000002</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -9127,31 +9135,31 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" ref="D6:D13" si="2">VLOOKUP($B6,$C$27:$J$35,COLUMN(B:B), FALSE)</f>
-        <v>0.18518518518518501</v>
+        <v>0.185185185</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0.18518518518518501</v>
+        <v>0.185185185</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="1"/>
-        <v>0.148148148148148</v>
+        <v>0.14814814800000001</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>0.33333333333333298</v>
+        <v>0.33333333300000001</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="1"/>
-        <v>0.148148148148148</v>
+        <v>0.14814814800000001</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="1"/>
-        <v>7.4074074074074098E-2</v>
+        <v>7.4074074000000004E-2</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="1"/>
-        <v>0.25925925925925902</v>
+        <v>0.29629629600000001</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -9164,31 +9172,31 @@
       </c>
       <c r="D7" s="6">
         <f t="shared" si="2"/>
-        <v>0.18518518518518501</v>
+        <v>0.185185185</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>0.11111111111111099</v>
+        <v>0.111111111</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="1"/>
-        <v>0.11111111111111099</v>
+        <v>0.111111111</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>0.11111111111111099</v>
+        <v>0.111111111</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="1"/>
-        <v>7.4074074074074098E-2</v>
+        <v>7.4074074000000004E-2</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="1"/>
-        <v>3.7037037037037E-2</v>
+        <v>3.7037037000000002E-2</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="1"/>
-        <v>3.7037037037037E-2</v>
+        <v>3.7037037000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -9201,27 +9209,27 @@
       </c>
       <c r="D8" s="6">
         <f t="shared" si="2"/>
-        <v>0.148148148148148</v>
+        <v>0.14814814800000001</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>0.148148148148148</v>
+        <v>0.14814814800000001</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="1"/>
-        <v>3.7037037037037E-2</v>
+        <v>3.7037037000000002E-2</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>0.148148148148148</v>
+        <v>0.14814814800000001</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="1"/>
-        <v>0.11111111111111099</v>
+        <v>0.111111111</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>0.11111111111111099</v>
+        <v>0.111111111</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="1"/>
@@ -9238,31 +9246,31 @@
       </c>
       <c r="D9" s="6">
         <f t="shared" si="2"/>
-        <v>0.11111111111111099</v>
+        <v>0.111111111</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>0.11111111111111099</v>
+        <v>0.111111111</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="1"/>
-        <v>0.18518518518518501</v>
+        <v>0.185185185</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
-        <v>7.4074074074074098E-2</v>
+        <v>7.4074074000000004E-2</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
-        <v>7.4074074074074098E-2</v>
+        <v>7.4074074000000004E-2</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="1"/>
-        <v>0.11111111111111099</v>
+        <v>0.111111111</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="1"/>
-        <v>3.7037037037037E-2</v>
+        <v>3.7037037000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -9275,31 +9283,31 @@
       </c>
       <c r="D10" s="6">
         <f t="shared" si="2"/>
-        <v>7.4074074074074098E-2</v>
+        <v>7.4074074000000004E-2</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>7.4074074074074098E-2</v>
+        <v>7.4074074000000004E-2</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="1"/>
-        <v>7.4074074074074098E-2</v>
+        <v>7.4074074000000004E-2</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>0.11111111111111099</v>
+        <v>0.111111111</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="1"/>
-        <v>7.4074074074074098E-2</v>
+        <v>7.4074074000000004E-2</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="1"/>
-        <v>3.7037037037037E-2</v>
+        <v>3.7037037000000002E-2</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="1"/>
-        <v>0.148148148148148</v>
+        <v>0.111111111</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -9312,31 +9320,31 @@
       </c>
       <c r="D11" s="6">
         <f t="shared" si="2"/>
-        <v>3.7037037037037E-2</v>
+        <v>3.7037037000000002E-2</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>7.4074074074074098E-2</v>
+        <v>7.4074074000000004E-2</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="1"/>
-        <v>3.7037037037037E-2</v>
+        <v>3.7037037000000002E-2</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
-        <v>3.7037037037037E-2</v>
+        <v>3.7037037000000002E-2</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
-        <v>3.7037037037037E-2</v>
+        <v>3.7037037000000002E-2</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="1"/>
-        <v>3.7037037037037E-2</v>
+        <v>3.7037037000000002E-2</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="1"/>
-        <v>0.148148148148148</v>
+        <v>0.14814814800000001</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -9349,31 +9357,31 @@
       </c>
       <c r="D12" s="6">
         <f t="shared" si="2"/>
-        <v>3.7037037037037E-2</v>
+        <v>3.7037037000000002E-2</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>0.148148148148148</v>
+        <v>0.14814814800000001</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="1"/>
-        <v>0.148148148148148</v>
+        <v>0.14814814800000001</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
-        <v>7.4074074074074098E-2</v>
+        <v>7.4074074000000004E-2</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="1"/>
-        <v>0.11111111111111099</v>
+        <v>0.111111111</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="1"/>
-        <v>0.11111111111111099</v>
+        <v>0.111111111</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="1"/>
-        <v>7.4074074074074098E-2</v>
+        <v>7.4074074000000004E-2</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -9390,27 +9398,27 @@
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>3.7037037037037E-2</v>
+        <v>3.7037037000000002E-2</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>3.7037037037037E-2</v>
+        <v>3.7037037000000002E-2</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="1"/>
-        <v>3.7037037037037E-2</v>
+        <v>3.7037037000000002E-2</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="1"/>
-        <v>0.148148148148148</v>
+        <v>0.14814814800000001</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="1"/>
-        <v>0.11111111111111099</v>
+        <v>0.111111111</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" si="1"/>
-        <v>3.7037037037037E-2</v>
+        <v>3.7037037000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -9466,7 +9474,7 @@
       </c>
       <c r="J16" s="25">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="3:16">
@@ -9649,7 +9657,7 @@
       </c>
       <c r="J21" s="25">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
@@ -9783,29 +9791,29 @@
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
     </row>
-    <row r="26" spans="3:16">
-      <c r="C26" t="s">
+    <row r="26" spans="3:16" ht="15">
+      <c r="C26" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="39" t="s">
         <v>121</v>
       </c>
       <c r="K26" s="16"/>
@@ -9815,240 +9823,240 @@
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
     </row>
-    <row r="27" spans="3:16">
-      <c r="C27" t="s">
+    <row r="27" spans="3:16" ht="15">
+      <c r="C27" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D27">
-        <v>0.18518518518518501</v>
-      </c>
-      <c r="E27">
-        <v>0.18518518518518501</v>
-      </c>
-      <c r="F27">
-        <v>0.148148148148148</v>
-      </c>
-      <c r="G27">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="H27">
-        <v>0.148148148148148</v>
-      </c>
-      <c r="I27">
-        <v>7.4074074074074098E-2</v>
-      </c>
-      <c r="J27">
-        <v>0.25925925925925902</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16">
-      <c r="C28" t="s">
+      <c r="D27" s="39">
+        <v>0.185185185</v>
+      </c>
+      <c r="E27" s="39">
+        <v>0.185185185</v>
+      </c>
+      <c r="F27" s="39">
+        <v>0.14814814800000001</v>
+      </c>
+      <c r="G27" s="39">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="H27" s="39">
+        <v>0.14814814800000001</v>
+      </c>
+      <c r="I27" s="39">
+        <v>7.4074074000000004E-2</v>
+      </c>
+      <c r="J27" s="39">
+        <v>0.29629629600000001</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" ht="15">
+      <c r="C28" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D28">
-        <v>3.7037037037037E-2</v>
-      </c>
-      <c r="E28">
-        <v>0.148148148148148</v>
-      </c>
-      <c r="F28">
-        <v>0.148148148148148</v>
-      </c>
-      <c r="G28">
-        <v>7.4074074074074098E-2</v>
-      </c>
-      <c r="H28">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="I28">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="J28">
-        <v>7.4074074074074098E-2</v>
+      <c r="D28" s="39">
+        <v>3.7037037000000002E-2</v>
+      </c>
+      <c r="E28" s="39">
+        <v>0.14814814800000001</v>
+      </c>
+      <c r="F28" s="39">
+        <v>0.14814814800000001</v>
+      </c>
+      <c r="G28" s="39">
+        <v>7.4074074000000004E-2</v>
+      </c>
+      <c r="H28" s="39">
+        <v>0.111111111</v>
+      </c>
+      <c r="I28" s="39">
+        <v>0.111111111</v>
+      </c>
+      <c r="J28" s="39">
+        <v>7.4074074000000004E-2</v>
       </c>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="3:16">
-      <c r="C29" t="s">
+    <row r="29" spans="3:16" ht="15">
+      <c r="C29" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D29">
-        <v>0.18518518518518501</v>
-      </c>
-      <c r="E29">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="F29">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="G29">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="H29">
-        <v>7.4074074074074098E-2</v>
-      </c>
-      <c r="I29">
-        <v>3.7037037037037E-2</v>
-      </c>
-      <c r="J29">
-        <v>3.7037037037037E-2</v>
+      <c r="D29" s="39">
+        <v>0.185185185</v>
+      </c>
+      <c r="E29" s="39">
+        <v>0.111111111</v>
+      </c>
+      <c r="F29" s="39">
+        <v>0.111111111</v>
+      </c>
+      <c r="G29" s="39">
+        <v>0.111111111</v>
+      </c>
+      <c r="H29" s="39">
+        <v>7.4074074000000004E-2</v>
+      </c>
+      <c r="I29" s="39">
+        <v>3.7037037000000002E-2</v>
+      </c>
+      <c r="J29" s="39">
+        <v>3.7037037000000002E-2</v>
       </c>
       <c r="N29" s="16"/>
     </row>
-    <row r="30" spans="3:16">
-      <c r="C30" t="s">
+    <row r="30" spans="3:16" ht="15">
+      <c r="C30" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D30">
-        <v>0.22222222222222199</v>
-      </c>
-      <c r="E30">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="F30">
-        <v>0.22222222222222199</v>
-      </c>
-      <c r="G30">
-        <v>7.4074074074074098E-2</v>
-      </c>
-      <c r="H30">
-        <v>0.22222222222222199</v>
-      </c>
-      <c r="I30">
-        <v>0.37037037037037002</v>
-      </c>
-      <c r="J30">
-        <v>0.25925925925925902</v>
-      </c>
-    </row>
-    <row r="31" spans="3:16">
-      <c r="C31" t="s">
+      <c r="D30" s="39">
+        <v>0.222222222</v>
+      </c>
+      <c r="E30" s="39">
+        <v>0.111111111</v>
+      </c>
+      <c r="F30" s="39">
+        <v>0.222222222</v>
+      </c>
+      <c r="G30" s="39">
+        <v>7.4074074000000004E-2</v>
+      </c>
+      <c r="H30" s="39">
+        <v>0.222222222</v>
+      </c>
+      <c r="I30" s="39">
+        <v>0.37037037</v>
+      </c>
+      <c r="J30" s="39">
+        <v>0.25925925900000002</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" ht="15">
+      <c r="C31" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D31">
-        <v>7.4074074074074098E-2</v>
-      </c>
-      <c r="E31">
-        <v>7.4074074074074098E-2</v>
-      </c>
-      <c r="F31">
-        <v>7.4074074074074098E-2</v>
-      </c>
-      <c r="G31">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="H31">
-        <v>7.4074074074074098E-2</v>
-      </c>
-      <c r="I31">
-        <v>3.7037037037037E-2</v>
-      </c>
-      <c r="J31">
-        <v>0.148148148148148</v>
-      </c>
-    </row>
-    <row r="32" spans="3:16">
-      <c r="C32" t="s">
+      <c r="D31" s="39">
+        <v>7.4074074000000004E-2</v>
+      </c>
+      <c r="E31" s="39">
+        <v>7.4074074000000004E-2</v>
+      </c>
+      <c r="F31" s="39">
+        <v>7.4074074000000004E-2</v>
+      </c>
+      <c r="G31" s="39">
+        <v>0.111111111</v>
+      </c>
+      <c r="H31" s="39">
+        <v>7.4074074000000004E-2</v>
+      </c>
+      <c r="I31" s="39">
+        <v>3.7037037000000002E-2</v>
+      </c>
+      <c r="J31" s="39">
+        <v>0.111111111</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" ht="15">
+      <c r="C32" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D32">
-        <v>0.148148148148148</v>
-      </c>
-      <c r="E32">
-        <v>0.148148148148148</v>
-      </c>
-      <c r="F32">
-        <v>3.7037037037037E-2</v>
-      </c>
-      <c r="G32">
-        <v>0.148148148148148</v>
-      </c>
-      <c r="H32">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="I32">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="J32">
+      <c r="D32" s="39">
+        <v>0.14814814800000001</v>
+      </c>
+      <c r="E32" s="39">
+        <v>0.14814814800000001</v>
+      </c>
+      <c r="F32" s="39">
+        <v>3.7037037000000002E-2</v>
+      </c>
+      <c r="G32" s="39">
+        <v>0.14814814800000001</v>
+      </c>
+      <c r="H32" s="39">
+        <v>0.111111111</v>
+      </c>
+      <c r="I32" s="39">
+        <v>0.111111111</v>
+      </c>
+      <c r="J32" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:10">
-      <c r="C33" t="s">
+    <row r="33" spans="3:10" ht="15">
+      <c r="C33" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D33">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="E33">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="F33">
-        <v>0.18518518518518501</v>
-      </c>
-      <c r="G33">
-        <v>7.4074074074074098E-2</v>
-      </c>
-      <c r="H33">
-        <v>7.4074074074074098E-2</v>
-      </c>
-      <c r="I33">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="J33">
-        <v>3.7037037037037E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10">
-      <c r="C34" t="s">
+      <c r="D33" s="39">
+        <v>0.111111111</v>
+      </c>
+      <c r="E33" s="39">
+        <v>0.111111111</v>
+      </c>
+      <c r="F33" s="39">
+        <v>0.185185185</v>
+      </c>
+      <c r="G33" s="39">
+        <v>7.4074074000000004E-2</v>
+      </c>
+      <c r="H33" s="39">
+        <v>7.4074074000000004E-2</v>
+      </c>
+      <c r="I33" s="39">
+        <v>0.111111111</v>
+      </c>
+      <c r="J33" s="39">
+        <v>3.7037037000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="15">
+      <c r="C34" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="39">
         <v>0</v>
       </c>
-      <c r="E34">
-        <v>3.7037037037037E-2</v>
-      </c>
-      <c r="F34">
-        <v>3.7037037037037E-2</v>
-      </c>
-      <c r="G34">
-        <v>3.7037037037037E-2</v>
-      </c>
-      <c r="H34">
-        <v>0.148148148148148</v>
-      </c>
-      <c r="I34">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="J34">
-        <v>3.7037037037037E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10">
-      <c r="C35" t="s">
+      <c r="E34" s="39">
+        <v>3.7037037000000002E-2</v>
+      </c>
+      <c r="F34" s="39">
+        <v>3.7037037000000002E-2</v>
+      </c>
+      <c r="G34" s="39">
+        <v>3.7037037000000002E-2</v>
+      </c>
+      <c r="H34" s="39">
+        <v>0.14814814800000001</v>
+      </c>
+      <c r="I34" s="39">
+        <v>0.111111111</v>
+      </c>
+      <c r="J34" s="39">
+        <v>3.7037037000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="15">
+      <c r="C35" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D35">
-        <v>3.7037037037037E-2</v>
-      </c>
-      <c r="E35">
-        <v>7.4074074074074098E-2</v>
-      </c>
-      <c r="F35">
-        <v>3.7037037037037E-2</v>
-      </c>
-      <c r="G35">
-        <v>3.7037037037037E-2</v>
-      </c>
-      <c r="H35">
-        <v>3.7037037037037E-2</v>
-      </c>
-      <c r="I35">
-        <v>3.7037037037037E-2</v>
-      </c>
-      <c r="J35">
-        <v>0.148148148148148</v>
+      <c r="D35" s="39">
+        <v>3.7037037000000002E-2</v>
+      </c>
+      <c r="E35" s="39">
+        <v>7.4074074000000004E-2</v>
+      </c>
+      <c r="F35" s="39">
+        <v>3.7037037000000002E-2</v>
+      </c>
+      <c r="G35" s="39">
+        <v>3.7037037000000002E-2</v>
+      </c>
+      <c r="H35" s="39">
+        <v>3.7037037000000002E-2</v>
+      </c>
+      <c r="I35" s="39">
+        <v>3.7037037000000002E-2</v>
+      </c>
+      <c r="J35" s="39">
+        <v>0.14814814800000001</v>
       </c>
     </row>
   </sheetData>

--- a/tabelas.xlsx
+++ b/tabelas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25580" windowHeight="15460"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25580" windowHeight="15460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="desc" sheetId="6" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="178">
   <si>
     <t>Método</t>
   </si>
@@ -363,9 +363,6 @@
     <t>% Estados</t>
   </si>
   <si>
-    <t>Part (%) ICMS na RCL</t>
-  </si>
-  <si>
     <t>Suavização Exponencial</t>
   </si>
   <si>
@@ -584,15 +581,17 @@
   <si>
     <t>Medida de Acurácia</t>
   </si>
+  <si>
+    <t>Part. ICMS na RCL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -817,7 +816,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -905,8 +904,72 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -975,8 +1038,32 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -996,27 +1083,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1026,17 +1092,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="151">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1080,6 +1140,38 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1122,6 +1214,38 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1968,7 +2092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B32" sqref="B32:D36"/>
     </sheetView>
   </sheetViews>
@@ -2147,7 +2271,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -2355,13 +2479,13 @@
         <v>78</v>
       </c>
       <c r="F22" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="H22" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -2375,10 +2499,10 @@
         <v>77</v>
       </c>
       <c r="F23" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="H23" s="9">
         <v>1</v>
@@ -2395,10 +2519,10 @@
         <v>77</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H24" s="9">
         <v>2</v>
@@ -2415,10 +2539,10 @@
         <v>81</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H25" s="9">
         <v>3</v>
@@ -2435,10 +2559,10 @@
         <v>81</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H26" s="9">
         <v>4</v>
@@ -2455,10 +2579,10 @@
         <v>78</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H27" s="9">
         <v>5</v>
@@ -2475,10 +2599,10 @@
         <v>80</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H28" s="9">
         <v>6</v>
@@ -2495,10 +2619,10 @@
         <v>77</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H29" s="9">
         <v>7</v>
@@ -2506,10 +2630,10 @@
     </row>
     <row r="30" spans="2:8">
       <c r="F30" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H30" s="9">
         <v>8</v>
@@ -2517,10 +2641,10 @@
     </row>
     <row r="31" spans="2:8">
       <c r="F31" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H31" s="9">
         <v>9</v>
@@ -2528,10 +2652,10 @@
     </row>
     <row r="32" spans="2:8">
       <c r="F32" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H32" s="9">
         <v>10</v>
@@ -2539,10 +2663,10 @@
     </row>
     <row r="33" spans="6:8">
       <c r="F33" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H33" s="9">
         <v>11</v>
@@ -2550,10 +2674,10 @@
     </row>
     <row r="34" spans="6:8">
       <c r="F34" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H34" s="9">
         <v>12</v>
@@ -2561,10 +2685,10 @@
     </row>
     <row r="35" spans="6:8">
       <c r="F35" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H35" s="9">
         <v>13</v>
@@ -2572,10 +2696,10 @@
     </row>
     <row r="36" spans="6:8">
       <c r="F36" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H36" s="9">
         <v>14</v>
@@ -2611,45 +2735,45 @@
   <sheetData>
     <row r="5" spans="4:12">
       <c r="E5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="4:12">
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="4:12" ht="36" customHeight="1">
-      <c r="E7" s="33"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="4:12">
@@ -2839,25 +2963,25 @@
     </row>
     <row r="15" spans="4:12">
       <c r="F15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="4:12">
@@ -3035,28 +3159,28 @@
     </row>
     <row r="23" spans="5:12">
       <c r="E23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" t="s">
         <v>115</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>116</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>117</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>118</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>119</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>120</v>
-      </c>
-      <c r="L23" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="24" spans="5:12">
@@ -3209,6 +3333,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="F8:L12" emptyCellReference="1"/>
   </ignoredErrors>
@@ -3225,7 +3350,7 @@
   <dimension ref="D5:L28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E6" sqref="E6:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3236,45 +3361,45 @@
   <sheetData>
     <row r="5" spans="4:12">
       <c r="E5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="4:12">
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="4:12" ht="33">
-      <c r="E7" s="33"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="4:12">
@@ -3464,25 +3589,25 @@
     </row>
     <row r="15" spans="4:12">
       <c r="F15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="4:12">
@@ -3660,28 +3785,28 @@
     </row>
     <row r="23" spans="5:12">
       <c r="E23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" t="s">
         <v>115</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>116</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>117</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>118</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>119</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>120</v>
-      </c>
-      <c r="L23" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="24" spans="5:12">
@@ -3831,6 +3956,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="F8:L12" emptyCellReference="1"/>
   </ignoredErrors>
@@ -3859,45 +3985,45 @@
   <sheetData>
     <row r="5" spans="4:12">
       <c r="E5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="4:12">
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="4:12" ht="36" customHeight="1">
-      <c r="E7" s="33"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="4:12">
@@ -4068,25 +4194,25 @@
     </row>
     <row r="14" spans="4:12">
       <c r="F14" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="4:12">
@@ -4226,28 +4352,28 @@
     </row>
     <row r="20" spans="5:12">
       <c r="E20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" t="s">
         <v>115</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>116</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>117</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>118</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>119</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>120</v>
-      </c>
-      <c r="L20" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="5:12">
@@ -4374,6 +4500,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="F8:L11" emptyCellReference="1"/>
   </ignoredErrors>
@@ -4402,45 +4529,45 @@
   <sheetData>
     <row r="5" spans="4:12">
       <c r="E5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="4:12">
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="4:12" ht="33">
-      <c r="E7" s="33"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="4:12">
@@ -4611,25 +4738,25 @@
     </row>
     <row r="14" spans="4:12">
       <c r="F14" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="4:12">
@@ -4769,28 +4896,28 @@
     </row>
     <row r="20" spans="5:12">
       <c r="E20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" t="s">
         <v>115</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>116</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>117</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>118</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>119</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>120</v>
-      </c>
-      <c r="L20" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="5:12">
@@ -4914,6 +5041,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="F8:L11" emptyCellReference="1"/>
   </ignoredErrors>
@@ -4930,62 +5058,62 @@
   <dimension ref="D5:M27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:M12"/>
+      <selection activeCell="E6" sqref="E6:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="13" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:13">
       <c r="E5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="4:13">
-      <c r="E6" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
     </row>
     <row r="7" spans="4:13" ht="33">
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="4:13">
@@ -4993,7 +5121,7 @@
         <v>98</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="6">
         <v>0.18518518518518517</v>
@@ -5032,7 +5160,7 @@
         <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F9" s="6">
         <v>0.1111111111111111</v>
@@ -5071,7 +5199,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F10" s="6">
         <v>0.18518518518518517</v>
@@ -5110,7 +5238,7 @@
         <v>99</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F11" s="6">
         <v>0.25925925925925924</v>
@@ -5149,7 +5277,7 @@
         <v>102</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12" s="7">
         <v>0.25925925925925924</v>
@@ -5195,25 +5323,25 @@
     </row>
     <row r="15" spans="4:13">
       <c r="G15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="4:13">
@@ -5383,28 +5511,28 @@
     </row>
     <row r="22" spans="6:13">
       <c r="F22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" t="s">
         <v>115</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>116</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>117</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>118</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>119</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>120</v>
-      </c>
-      <c r="M22" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="6:13">
@@ -5555,6 +5683,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="G8:M12" emptyCellReference="1"/>
   </ignoredErrors>
@@ -5571,62 +5700,62 @@
   <dimension ref="D5:M27"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="13" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:13">
       <c r="E5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="4:13">
-      <c r="E6" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
     </row>
     <row r="7" spans="4:13" ht="33">
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="4:13">
@@ -5634,7 +5763,7 @@
         <v>98</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="6">
         <v>0.18518518518518517</v>
@@ -5673,7 +5802,7 @@
         <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F9" s="6">
         <v>0.1111111111111111</v>
@@ -5712,7 +5841,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F10" s="6">
         <v>0.18518518518518517</v>
@@ -5751,7 +5880,7 @@
         <v>99</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F11" s="6">
         <v>0.25925925925925924</v>
@@ -5790,7 +5919,7 @@
         <v>102</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12" s="7">
         <v>0.25925925925925924</v>
@@ -5819,7 +5948,7 @@
         <f t="shared" si="0"/>
         <v>6.5635444585117497E-2</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="7">
         <f t="shared" si="0"/>
         <v>4.1624203948773399E-2</v>
       </c>
@@ -5836,25 +5965,25 @@
     </row>
     <row r="15" spans="4:13">
       <c r="G15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="4:13">
@@ -6024,28 +6153,28 @@
     </row>
     <row r="22" spans="6:13">
       <c r="F22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" t="s">
         <v>115</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>116</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>117</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>118</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>119</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>120</v>
-      </c>
-      <c r="M22" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="6:13">
@@ -6196,6 +6325,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="G8:M12" emptyCellReference="1"/>
   </ignoredErrors>
@@ -6226,16 +6356,16 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="4:5">
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>158</v>
+      <c r="E6" s="43" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="4:5">
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="4:5">
       <c r="D8" s="2" t="s">
@@ -6255,7 +6385,7 @@
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>95</v>
@@ -6349,77 +6479,77 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="3:12" ht="11.25" customHeight="1">
-      <c r="D3" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" spans="3:12" ht="36" customHeight="1">
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="14" customHeight="1">
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="45" t="str">
-        <f t="shared" ref="D5:D58" si="0">VLOOKUP(C5,desc_estados,2,FALSE)</f>
+      <c r="D5" s="50" t="str">
+        <f t="shared" ref="D5:D55" si="0">VLOOKUP(C5,desc_estados,2,FALSE)</f>
         <v>Acre</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5" s="39" t="s">
+      <c r="E5" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6427,29 +6557,29 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" s="39" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6457,62 +6587,62 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="46" t="str">
+      <c r="D7" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Alagoas</v>
       </c>
-      <c r="E7" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="39" t="s">
+      <c r="E7" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="39" t="s">
+      <c r="G7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="39" t="s">
-        <v>105</v>
+      <c r="L7" s="32" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="14" customHeight="1">
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F8" s="39" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="39" t="s">
+      <c r="H8" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6520,32 +6650,32 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="46" t="str">
+      <c r="D9" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Amazonas</v>
       </c>
-      <c r="E9" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" s="39" t="s">
+      <c r="E9" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6553,29 +6683,29 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" s="39" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" s="39" t="s">
+      <c r="I10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6583,32 +6713,32 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="46" t="str">
+      <c r="D11" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Amapá</v>
       </c>
-      <c r="E11" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="39" t="s">
+      <c r="E11" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6616,29 +6746,29 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" s="39" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="32" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6646,32 +6776,32 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="46" t="str">
+      <c r="D13" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Bahia</v>
       </c>
-      <c r="E13" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="39" t="s">
+      <c r="E13" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6679,29 +6809,29 @@
       <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="39" t="s">
+      <c r="D14" s="47"/>
+      <c r="E14" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6709,32 +6839,32 @@
       <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="46" t="str">
+      <c r="D15" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Ceará</v>
       </c>
-      <c r="E15" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6742,29 +6872,29 @@
       <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="39" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="L16" s="39" t="s">
+      <c r="K16" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6772,32 +6902,32 @@
       <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="46" t="str">
+      <c r="D17" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Distrito Federal</v>
       </c>
-      <c r="E17" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F17" s="39" t="s">
+      <c r="E17" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6805,29 +6935,29 @@
       <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F18" s="39" t="s">
+      <c r="D18" s="47"/>
+      <c r="E18" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="39" t="s">
+      <c r="L18" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6835,62 +6965,62 @@
       <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="46" t="str">
+      <c r="D19" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Espírito Santo</v>
       </c>
-      <c r="E19" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" s="39" t="s">
+      <c r="E19" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="39" t="s">
+      <c r="J19" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="39" t="s">
-        <v>105</v>
+      <c r="L19" s="32" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="3:12" ht="14" customHeight="1">
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F20" s="39" t="s">
+      <c r="D20" s="47"/>
+      <c r="E20" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" s="39" t="s">
+      <c r="I20" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="39" t="s">
+      <c r="L20" s="32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6898,32 +7028,32 @@
       <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="46" t="str">
+      <c r="D21" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Goiás</v>
       </c>
-      <c r="E21" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" s="39" t="s">
+      <c r="E21" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="39" t="s">
+      <c r="G21" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K21" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="L21" s="39" t="s">
+      <c r="I21" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" s="32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6931,62 +7061,62 @@
       <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F22" s="39" t="s">
+      <c r="D22" s="47"/>
+      <c r="E22" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="39" t="s">
+      <c r="G22" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K22" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>105</v>
+      <c r="I22" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="3:12" ht="14" customHeight="1">
       <c r="C23" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="46" t="str">
+      <c r="D23" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Maranhão</v>
       </c>
-      <c r="E23" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F23" s="39" t="s">
+      <c r="E23" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="39" t="s">
+      <c r="J23" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="39" t="s">
+      <c r="K23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="39" t="s">
+      <c r="L23" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6994,29 +7124,29 @@
       <c r="C24" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F24" s="39" t="s">
+      <c r="D24" s="47"/>
+      <c r="E24" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="J24" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="39" t="s">
+      <c r="L24" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7024,32 +7154,32 @@
       <c r="C25" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="46" t="str">
+      <c r="D25" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Minas Gerais</v>
       </c>
-      <c r="E25" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="39" t="s">
+      <c r="E25" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I25" s="39" t="s">
+      <c r="H25" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="39" t="s">
+      <c r="K25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="39" t="s">
+      <c r="L25" s="32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7057,29 +7187,29 @@
       <c r="C26" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F26" s="39" t="s">
+      <c r="D26" s="47"/>
+      <c r="E26" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="39" t="s">
+      <c r="H26" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="39" t="s">
+      <c r="J26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="39" t="s">
+      <c r="K26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="39" t="s">
+      <c r="L26" s="32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7087,32 +7217,32 @@
       <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="46" t="str">
+      <c r="D27" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Mato Grosso do Sul</v>
       </c>
-      <c r="E27" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="39" t="s">
+      <c r="E27" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="39" t="s">
+      <c r="H27" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="J27" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="39" t="s">
+      <c r="K27" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="39" t="s">
+      <c r="L27" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7120,29 +7250,29 @@
       <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F28" s="39" t="s">
+      <c r="D28" s="47"/>
+      <c r="E28" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="39" t="s">
+      <c r="H28" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="39" t="s">
+      <c r="J28" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="39" t="s">
+      <c r="K28" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="39" t="s">
+      <c r="L28" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7150,32 +7280,32 @@
       <c r="C29" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="46" t="str">
+      <c r="D29" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Mato Grosso</v>
       </c>
-      <c r="E29" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F29" s="39" t="s">
+      <c r="E29" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="39" t="s">
+      <c r="H29" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="I29" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="39" t="s">
+      <c r="J29" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="39" t="s">
+      <c r="K29" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="39" t="s">
+      <c r="L29" s="32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7183,29 +7313,29 @@
       <c r="C30" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F30" s="39" t="s">
+      <c r="D30" s="47"/>
+      <c r="E30" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="H30" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="39" t="s">
+      <c r="J30" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="39" t="s">
+      <c r="K30" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="39" t="s">
+      <c r="L30" s="32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7213,32 +7343,32 @@
       <c r="C31" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="46" t="str">
+      <c r="D31" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Pará</v>
       </c>
-      <c r="E31" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F31" s="39" t="s">
+      <c r="E31" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="39" t="s">
+      <c r="H31" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="39" t="s">
+      <c r="J31" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="39" t="s">
+      <c r="K31" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L31" s="39" t="s">
+      <c r="L31" s="32" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7246,29 +7376,29 @@
       <c r="C32" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" s="39" t="s">
+      <c r="D32" s="47"/>
+      <c r="E32" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="39" t="s">
+      <c r="G32" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I32" s="39" t="s">
+      <c r="H32" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="39" t="s">
+      <c r="J32" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="39" t="s">
+      <c r="K32" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="39" t="s">
+      <c r="L32" s="32" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7276,32 +7406,32 @@
       <c r="C33" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="46" t="str">
+      <c r="D33" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Paraíba</v>
       </c>
-      <c r="E33" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F33" s="39" t="s">
+      <c r="E33" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="G33" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="H33" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="39" t="s">
+      <c r="J33" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="39" t="s">
+      <c r="K33" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="39" t="s">
+      <c r="L33" s="32" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7309,29 +7439,29 @@
       <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F34" s="39" t="s">
+      <c r="D34" s="47"/>
+      <c r="E34" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="39" t="s">
+      <c r="G34" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="H34" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="39" t="s">
+      <c r="I34" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="39" t="s">
+      <c r="J34" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="39" t="s">
+      <c r="K34" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L34" s="39" t="s">
+      <c r="L34" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7339,32 +7469,32 @@
       <c r="C35" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="46" t="str">
+      <c r="D35" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Pernambuco</v>
       </c>
-      <c r="E35" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F35" s="39" t="s">
+      <c r="E35" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="39" t="s">
+      <c r="G35" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="39" t="s">
+      <c r="H35" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="39" t="s">
+      <c r="I35" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="39" t="s">
+      <c r="J35" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K35" s="39" t="s">
+      <c r="K35" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L35" s="39" t="s">
+      <c r="L35" s="32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7372,29 +7502,29 @@
       <c r="C36" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F36" s="39" t="s">
+      <c r="D36" s="47"/>
+      <c r="E36" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="39" t="s">
+      <c r="G36" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="39" t="s">
+      <c r="H36" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="39" t="s">
+      <c r="I36" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J36" s="39" t="s">
+      <c r="J36" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K36" s="39" t="s">
+      <c r="K36" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L36" s="39" t="s">
+      <c r="L36" s="32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7402,32 +7532,32 @@
       <c r="C37" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="46" t="str">
+      <c r="D37" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Piauí</v>
       </c>
-      <c r="E37" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F37" s="39" t="s">
+      <c r="E37" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I37" s="39" t="s">
+      <c r="H37" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="39" t="s">
+      <c r="J37" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K37" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="L37" s="39" t="s">
+      <c r="K37" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="L37" s="32" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7435,62 +7565,62 @@
       <c r="C38" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F38" s="39" t="s">
+      <c r="D38" s="47"/>
+      <c r="E38" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="39" t="s">
+      <c r="G38" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I38" s="39" t="s">
+      <c r="H38" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="39" t="s">
+      <c r="J38" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K38" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="L38" s="39" t="s">
-        <v>105</v>
+      <c r="K38" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="L38" s="32" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="3:12" ht="14" customHeight="1">
       <c r="C39" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="46" t="str">
+      <c r="D39" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Paraná</v>
       </c>
-      <c r="E39" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F39" s="39" t="s">
+      <c r="E39" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="39" t="s">
+      <c r="G39" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="39" t="s">
+      <c r="H39" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="39" t="s">
+      <c r="I39" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="39" t="s">
+      <c r="J39" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="39" t="s">
+      <c r="K39" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L39" s="39" t="s">
+      <c r="L39" s="32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7498,29 +7628,29 @@
       <c r="C40" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F40" s="39" t="s">
+      <c r="D40" s="47"/>
+      <c r="E40" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="39" t="s">
+      <c r="G40" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="39" t="s">
+      <c r="I40" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="39" t="s">
+      <c r="J40" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="39" t="s">
+      <c r="K40" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L40" s="39" t="s">
+      <c r="L40" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7528,32 +7658,32 @@
       <c r="C41" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="46" t="str">
+      <c r="D41" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Rio de Janeiro</v>
       </c>
-      <c r="E41" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F41" s="39" t="s">
+      <c r="E41" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="39" t="s">
+      <c r="G41" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="39" t="s">
+      <c r="H41" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="I41" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J41" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K41" s="39" t="s">
+      <c r="J41" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="K41" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L41" s="39" t="s">
+      <c r="L41" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7561,62 +7691,62 @@
       <c r="C42" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="46"/>
-      <c r="E42" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F42" s="39" t="s">
+      <c r="D42" s="47"/>
+      <c r="E42" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="39" t="s">
+      <c r="G42" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I42" s="39" t="s">
+      <c r="I42" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="39" t="s">
+      <c r="J42" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K42" s="39" t="s">
+      <c r="K42" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L42" s="39" t="s">
-        <v>105</v>
+      <c r="L42" s="32" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="3:12" ht="14" customHeight="1">
       <c r="C43" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="46" t="str">
+      <c r="D43" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Rio Grande do Norte</v>
       </c>
-      <c r="E43" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F43" s="39" t="s">
+      <c r="E43" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="39" t="s">
+      <c r="G43" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="39" t="s">
+      <c r="H43" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="39" t="s">
+      <c r="I43" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J43" s="39" t="s">
+      <c r="J43" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="39" t="s">
+      <c r="K43" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L43" s="39" t="s">
+      <c r="L43" s="32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7624,29 +7754,29 @@
       <c r="C44" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="46"/>
-      <c r="E44" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F44" s="39" t="s">
+      <c r="D44" s="47"/>
+      <c r="E44" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="39" t="s">
+      <c r="G44" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="39" t="s">
+      <c r="H44" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="39" t="s">
+      <c r="I44" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="39" t="s">
+      <c r="J44" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K44" s="39" t="s">
+      <c r="K44" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L44" s="39" t="s">
+      <c r="L44" s="32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7654,32 +7784,32 @@
       <c r="C45" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="46" t="str">
+      <c r="D45" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Rondônia</v>
       </c>
-      <c r="E45" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F45" s="39" t="s">
+      <c r="E45" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="39" t="s">
+      <c r="G45" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="39" t="s">
+      <c r="H45" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I45" s="39" t="s">
+      <c r="I45" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="39" t="s">
+      <c r="J45" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="39" t="s">
+      <c r="K45" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L45" s="39" t="s">
+      <c r="L45" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7687,29 +7817,29 @@
       <c r="C46" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F46" s="39" t="s">
+      <c r="D46" s="47"/>
+      <c r="E46" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="39" t="s">
+      <c r="G46" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="39" t="s">
+      <c r="H46" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="39" t="s">
+      <c r="I46" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="39" t="s">
+      <c r="J46" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K46" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="L46" s="39" t="s">
+      <c r="K46" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="L46" s="32" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7717,32 +7847,32 @@
       <c r="C47" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="46" t="str">
+      <c r="D47" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Roraima</v>
       </c>
-      <c r="E47" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F47" s="39" t="s">
+      <c r="E47" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H47" s="39" t="s">
+      <c r="G47" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="39" t="s">
+      <c r="I47" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J47" s="39" t="s">
+      <c r="J47" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K47" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="L47" s="39" t="s">
+      <c r="K47" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="L47" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7750,29 +7880,29 @@
       <c r="C48" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F48" s="39" t="s">
+      <c r="D48" s="47"/>
+      <c r="E48" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="39" t="s">
+      <c r="G48" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="39" t="s">
+      <c r="H48" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="39" t="s">
+      <c r="I48" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J48" s="39" t="s">
+      <c r="J48" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="39" t="s">
+      <c r="K48" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L48" s="39" t="s">
+      <c r="L48" s="32" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7780,32 +7910,32 @@
       <c r="C49" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="46" t="str">
+      <c r="D49" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Rio Grande do Sul</v>
       </c>
-      <c r="E49" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F49" s="39" t="s">
+      <c r="E49" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F49" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="39" t="s">
+      <c r="G49" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="39" t="s">
+      <c r="H49" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="39" t="s">
+      <c r="I49" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J49" s="39" t="s">
+      <c r="J49" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K49" s="39" t="s">
+      <c r="K49" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L49" s="39" t="s">
+      <c r="L49" s="32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7813,62 +7943,62 @@
       <c r="C50" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="46"/>
-      <c r="E50" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F50" s="39" t="s">
+      <c r="D50" s="47"/>
+      <c r="E50" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F50" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H50" s="39" t="s">
+      <c r="G50" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I50" s="39" t="s">
+      <c r="I50" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J50" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="K50" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="L50" s="39" t="s">
-        <v>105</v>
+      <c r="J50" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="K50" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="L50" s="32" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="3:20" ht="14" customHeight="1">
       <c r="C51" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="46" t="str">
+      <c r="D51" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Santa Catarina</v>
       </c>
-      <c r="E51" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F51" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="39" t="s">
+      <c r="E51" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I51" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J51" s="39" t="s">
+      <c r="H51" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J51" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K51" s="39" t="s">
+      <c r="K51" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L51" s="39" t="s">
+      <c r="L51" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7876,29 +8006,29 @@
       <c r="C52" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="46"/>
-      <c r="E52" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F52" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="39" t="s">
+      <c r="D52" s="47"/>
+      <c r="E52" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I52" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J52" s="39" t="s">
+      <c r="H52" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J52" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="39" t="s">
+      <c r="K52" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L52" s="39" t="s">
+      <c r="L52" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7906,32 +8036,32 @@
       <c r="C53" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="46" t="str">
+      <c r="D53" s="47" t="str">
         <f t="shared" si="0"/>
         <v>Sergipe</v>
       </c>
-      <c r="E53" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F53" s="39" t="s">
+      <c r="E53" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="39" t="s">
+      <c r="G53" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="39" t="s">
+      <c r="H53" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I53" s="39" t="s">
+      <c r="I53" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="39" t="s">
+      <c r="J53" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K53" s="39" t="s">
+      <c r="K53" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L53" s="39" t="s">
+      <c r="L53" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7939,29 +8069,29 @@
       <c r="C54" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="46"/>
-      <c r="E54" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F54" s="39" t="s">
+      <c r="D54" s="47"/>
+      <c r="E54" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="39" t="s">
+      <c r="G54" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="39" t="s">
+      <c r="H54" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J54" s="39" t="s">
+      <c r="I54" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J54" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K54" s="39" t="s">
+      <c r="K54" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L54" s="39" t="s">
+      <c r="L54" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7969,32 +8099,32 @@
       <c r="C55" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="46" t="str">
+      <c r="D55" s="47" t="str">
         <f t="shared" si="0"/>
         <v>São Paulo</v>
       </c>
-      <c r="E55" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F55" s="39" t="s">
+      <c r="E55" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H55" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I55" s="39" t="s">
+      <c r="G55" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I55" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J55" s="39" t="s">
+      <c r="J55" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K55" s="39" t="s">
+      <c r="K55" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L55" s="39" t="s">
+      <c r="L55" s="32" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8002,29 +8132,29 @@
       <c r="C56" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="46"/>
-      <c r="E56" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F56" s="39" t="s">
+      <c r="D56" s="47"/>
+      <c r="E56" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F56" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="39" t="s">
+      <c r="G56" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="39" t="s">
+      <c r="H56" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I56" s="39" t="s">
+      <c r="I56" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="J56" s="39" t="s">
+      <c r="J56" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K56" s="39" t="s">
+      <c r="K56" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L56" s="39" t="s">
+      <c r="L56" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8032,32 +8162,32 @@
       <c r="C57" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="47" t="str">
+      <c r="D57" s="48" t="str">
         <f>VLOOKUP(C58,desc_estados,2,FALSE)</f>
         <v>Tocantins</v>
       </c>
-      <c r="E57" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="F57" s="39" t="s">
+      <c r="E57" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F57" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G57" s="39" t="s">
+      <c r="G57" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="39" t="s">
+      <c r="H57" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I57" s="39" t="s">
+      <c r="I57" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J57" s="39" t="s">
+      <c r="J57" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K57" s="39" t="s">
+      <c r="K57" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L57" s="39" t="s">
+      <c r="L57" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8065,80 +8195,80 @@
       <c r="C58" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="48"/>
-      <c r="E58" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="F58" s="41" t="s">
+      <c r="D58" s="49"/>
+      <c r="E58" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G58" s="41" t="s">
+      <c r="G58" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="41" t="s">
+      <c r="H58" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="41" t="s">
+      <c r="I58" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="41" t="s">
+      <c r="J58" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="K58" s="41" t="s">
+      <c r="K58" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="L58" s="41" t="s">
+      <c r="L58" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="61" spans="3:20">
       <c r="D61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F61" t="s">
+        <v>158</v>
+      </c>
+      <c r="G61" t="s">
         <v>159</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>160</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>161</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>162</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>163</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>164</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>165</v>
       </c>
-      <c r="M61" t="s">
-        <v>166</v>
-      </c>
       <c r="N61" t="s">
+        <v>158</v>
+      </c>
+      <c r="O61" t="s">
         <v>159</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>160</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>161</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>162</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>163</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>164</v>
-      </c>
-      <c r="T61" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="62" spans="3:20">
@@ -8170,31 +8300,31 @@
         <v>19</v>
       </c>
       <c r="N62" t="str">
-        <f>VLOOKUP(F62,desc_modelos, 2, FALSE)</f>
+        <f t="shared" ref="N62:N88" si="1">VLOOKUP(F62,desc_modelos, 2, FALSE)</f>
         <v>STAR</v>
       </c>
       <c r="O62" t="str">
-        <f>VLOOKUP(G62,desc_modelos, 2, FALSE)</f>
+        <f t="shared" ref="O62:O88" si="2">VLOOKUP(G62,desc_modelos, 2, FALSE)</f>
         <v>ARIMA</v>
       </c>
       <c r="P62" t="str">
-        <f>VLOOKUP(H62,desc_modelos, 2, FALSE)</f>
+        <f t="shared" ref="P62:P88" si="3">VLOOKUP(H62,desc_modelos, 2, FALSE)</f>
         <v>ARIMA</v>
       </c>
       <c r="Q62" t="str">
-        <f>VLOOKUP(I62,desc_modelos, 2, FALSE)</f>
+        <f t="shared" ref="Q62:Q88" si="4">VLOOKUP(I62,desc_modelos, 2, FALSE)</f>
         <v>VAR</v>
       </c>
       <c r="R62" t="str">
-        <f>VLOOKUP(J62,desc_modelos, 2, FALSE)</f>
+        <f t="shared" ref="R62:R88" si="5">VLOOKUP(J62,desc_modelos, 2, FALSE)</f>
         <v>STAR</v>
       </c>
       <c r="S62" t="str">
-        <f>VLOOKUP(K62,desc_modelos, 2, FALSE)</f>
+        <f t="shared" ref="S62:S88" si="6">VLOOKUP(K62,desc_modelos, 2, FALSE)</f>
         <v>ARIMA</v>
       </c>
       <c r="T62" t="str">
-        <f>VLOOKUP(L62,desc_modelos, 2, FALSE)</f>
+        <f t="shared" ref="T62:T88" si="7">VLOOKUP(L62,desc_modelos, 2, FALSE)</f>
         <v>ARIMA</v>
       </c>
     </row>
@@ -8227,31 +8357,31 @@
         <v>20</v>
       </c>
       <c r="N63" t="str">
-        <f>VLOOKUP(F63,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>LSTVAR</v>
       </c>
       <c r="O63" t="str">
-        <f>VLOOKUP(G63,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>STAR</v>
       </c>
       <c r="P63" t="str">
-        <f>VLOOKUP(H63,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="Q63" t="str">
-        <f>VLOOKUP(I63,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Ingênuo</v>
       </c>
       <c r="R63" t="str">
-        <f>VLOOKUP(J63,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Ingênuo</v>
       </c>
       <c r="S63" t="str">
-        <f>VLOOKUP(K63,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Ingênuo</v>
       </c>
       <c r="T63" t="str">
-        <f>VLOOKUP(L63,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Ingênuo</v>
       </c>
     </row>
@@ -8284,31 +8414,31 @@
         <v>21</v>
       </c>
       <c r="N64" t="str">
-        <f>VLOOKUP(F64,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ARIMA</v>
       </c>
       <c r="O64" t="str">
-        <f>VLOOKUP(G64,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>ARIMA</v>
       </c>
       <c r="P64" t="str">
-        <f>VLOOKUP(H64,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="Q64" t="str">
-        <f>VLOOKUP(I64,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="R64" t="str">
-        <f>VLOOKUP(J64,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>LSTVAR</v>
       </c>
       <c r="S64" t="str">
-        <f>VLOOKUP(K64,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>LSTVAR</v>
       </c>
       <c r="T64" t="str">
-        <f>VLOOKUP(L64,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>VAR</v>
       </c>
     </row>
@@ -8341,31 +8471,31 @@
         <v>22</v>
       </c>
       <c r="N65" t="str">
-        <f>VLOOKUP(F65,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ARIMA</v>
       </c>
       <c r="O65" t="str">
-        <f>VLOOKUP(G65,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Combinação - Média</v>
       </c>
       <c r="P65" t="str">
-        <f>VLOOKUP(H65,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>STAR</v>
       </c>
       <c r="Q65" t="str">
-        <f>VLOOKUP(I65,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Combinação - Média</v>
       </c>
       <c r="R65" t="str">
-        <f>VLOOKUP(J65,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="S65" t="str">
-        <f>VLOOKUP(K65,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>STAR</v>
       </c>
       <c r="T65" t="str">
-        <f>VLOOKUP(L65,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>STAR</v>
       </c>
     </row>
@@ -8398,31 +8528,31 @@
         <v>23</v>
       </c>
       <c r="N66" t="str">
-        <f>VLOOKUP(F66,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ARIMA</v>
       </c>
       <c r="O66" t="str">
-        <f>VLOOKUP(G66,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>VAR</v>
       </c>
       <c r="P66" t="str">
-        <f>VLOOKUP(H66,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Combinação - Média</v>
       </c>
       <c r="Q66" t="str">
-        <f>VLOOKUP(I66,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>VAR</v>
       </c>
       <c r="R66" t="str">
-        <f>VLOOKUP(J66,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>VAR</v>
       </c>
       <c r="S66" t="str">
-        <f>VLOOKUP(K66,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>VAR</v>
       </c>
       <c r="T66" t="str">
-        <f>VLOOKUP(L66,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>VAR</v>
       </c>
     </row>
@@ -8455,31 +8585,31 @@
         <v>24</v>
       </c>
       <c r="N67" t="str">
-        <f>VLOOKUP(F67,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>STAR</v>
       </c>
       <c r="O67" t="str">
-        <f>VLOOKUP(G67,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>STAR</v>
       </c>
       <c r="P67" t="str">
-        <f>VLOOKUP(H67,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>ARIMA</v>
       </c>
       <c r="Q67" t="str">
-        <f>VLOOKUP(I67,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>ARIMA</v>
       </c>
       <c r="R67" t="str">
-        <f>VLOOKUP(J67,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>ARIMA</v>
       </c>
       <c r="S67" t="str">
-        <f>VLOOKUP(K67,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="T67" t="str">
-        <f>VLOOKUP(L67,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>ARIMA</v>
       </c>
     </row>
@@ -8512,31 +8642,31 @@
         <v>25</v>
       </c>
       <c r="N68" t="str">
-        <f>VLOOKUP(F68,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Ingênuo</v>
       </c>
       <c r="O68" t="str">
-        <f>VLOOKUP(G68,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="P68" t="str">
-        <f>VLOOKUP(H68,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>VAR</v>
       </c>
       <c r="Q68" t="str">
-        <f>VLOOKUP(I68,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>ARIMA</v>
       </c>
       <c r="R68" t="str">
-        <f>VLOOKUP(J68,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>ARIMA</v>
       </c>
       <c r="S68" t="str">
-        <f>VLOOKUP(K68,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>VAR</v>
       </c>
       <c r="T68" t="str">
-        <f>VLOOKUP(L68,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>ARIMA</v>
       </c>
     </row>
@@ -8569,31 +8699,31 @@
         <v>26</v>
       </c>
       <c r="N69" t="str">
-        <f>VLOOKUP(F69,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ARIMA</v>
       </c>
       <c r="O69" t="str">
-        <f>VLOOKUP(G69,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>STAR</v>
       </c>
       <c r="P69" t="str">
-        <f>VLOOKUP(H69,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>ARIMA</v>
       </c>
       <c r="Q69" t="str">
-        <f>VLOOKUP(I69,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="R69" t="str">
-        <f>VLOOKUP(J69,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Ingênuo</v>
       </c>
       <c r="S69" t="str">
-        <f>VLOOKUP(K69,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>LSTVAR</v>
       </c>
       <c r="T69" t="str">
-        <f>VLOOKUP(L69,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Ingênuo</v>
       </c>
     </row>
@@ -8626,31 +8756,31 @@
         <v>27</v>
       </c>
       <c r="N70" t="str">
-        <f>VLOOKUP(F70,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="O70" t="str">
-        <f>VLOOKUP(G70,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="P70" t="str">
-        <f>VLOOKUP(H70,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Ingênuo</v>
       </c>
       <c r="Q70" t="str">
-        <f>VLOOKUP(I70,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="R70" t="str">
-        <f>VLOOKUP(J70,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="S70" t="str">
-        <f>VLOOKUP(K70,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="T70" t="str">
-        <f>VLOOKUP(L70,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Suavização Exponencial</v>
       </c>
     </row>
@@ -8683,31 +8813,31 @@
         <v>28</v>
       </c>
       <c r="N71" t="str">
-        <f>VLOOKUP(F71,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>LSTVAR</v>
       </c>
       <c r="O71" t="str">
-        <f>VLOOKUP(G71,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>LSTVAR</v>
       </c>
       <c r="P71" t="str">
-        <f>VLOOKUP(H71,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>LSTVAR</v>
       </c>
       <c r="Q71" t="str">
-        <f>VLOOKUP(I71,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Ingênuo</v>
       </c>
       <c r="R71" t="str">
-        <f>VLOOKUP(J71,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>LSTVAR</v>
       </c>
       <c r="S71" t="str">
-        <f>VLOOKUP(K71,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Ingênuo</v>
       </c>
       <c r="T71" t="str">
-        <f>VLOOKUP(L71,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>LSTVAR</v>
       </c>
     </row>
@@ -8740,31 +8870,31 @@
         <v>29</v>
       </c>
       <c r="N72" t="str">
-        <f>VLOOKUP(F72,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Ingênuo</v>
       </c>
       <c r="O72" t="str">
-        <f>VLOOKUP(G72,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Ingênuo</v>
       </c>
       <c r="P72" t="str">
-        <f>VLOOKUP(H72,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="Q72" t="str">
-        <f>VLOOKUP(I72,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>LSTVAR</v>
       </c>
       <c r="R72" t="str">
-        <f>VLOOKUP(J72,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Ingênuo</v>
       </c>
       <c r="S72" t="str">
-        <f>VLOOKUP(K72,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Ingênuo</v>
       </c>
       <c r="T72" t="str">
-        <f>VLOOKUP(L72,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Ingênuo</v>
       </c>
     </row>
@@ -8797,31 +8927,31 @@
         <v>30</v>
       </c>
       <c r="N73" t="str">
-        <f>VLOOKUP(F73,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>LSTVAR</v>
       </c>
       <c r="O73" t="str">
-        <f>VLOOKUP(G73,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>LSTVAR</v>
       </c>
       <c r="P73" t="str">
-        <f>VLOOKUP(H73,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="Q73" t="str">
-        <f>VLOOKUP(I73,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>ARIMA</v>
       </c>
       <c r="R73" t="str">
-        <f>VLOOKUP(J73,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>ARIMA</v>
       </c>
       <c r="S73" t="str">
-        <f>VLOOKUP(K73,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>STAR</v>
       </c>
       <c r="T73" t="str">
-        <f>VLOOKUP(L73,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>ARIMA</v>
       </c>
     </row>
@@ -8854,31 +8984,31 @@
         <v>31</v>
       </c>
       <c r="N74" t="str">
-        <f>VLOOKUP(F74,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Ingênuo</v>
       </c>
       <c r="O74" t="str">
-        <f>VLOOKUP(G74,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Ingênuo</v>
       </c>
       <c r="P74" t="str">
-        <f>VLOOKUP(H74,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Ingênuo</v>
       </c>
       <c r="Q74" t="str">
-        <f>VLOOKUP(I74,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="R74" t="str">
-        <f>VLOOKUP(J74,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Ingênuo</v>
       </c>
       <c r="S74" t="str">
-        <f>VLOOKUP(K74,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Ingênuo</v>
       </c>
       <c r="T74" t="str">
-        <f>VLOOKUP(L74,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Ingênuo</v>
       </c>
     </row>
@@ -8911,31 +9041,31 @@
         <v>32</v>
       </c>
       <c r="N75" t="str">
-        <f>VLOOKUP(F75,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Combinação - Média</v>
       </c>
       <c r="O75" t="str">
-        <f>VLOOKUP(G75,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Combinação - Média</v>
       </c>
       <c r="P75" t="str">
-        <f>VLOOKUP(H75,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="Q75" t="str">
-        <f>VLOOKUP(I75,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>VAR</v>
       </c>
       <c r="R75" t="str">
-        <f>VLOOKUP(J75,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Combinação - Média</v>
       </c>
       <c r="S75" t="str">
-        <f>VLOOKUP(K75,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Combinação - Média</v>
       </c>
       <c r="T75" t="str">
-        <f>VLOOKUP(L75,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Combinação - Média</v>
       </c>
     </row>
@@ -8968,31 +9098,31 @@
         <v>33</v>
       </c>
       <c r="N76" t="str">
-        <f>VLOOKUP(F76,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>STAR</v>
       </c>
       <c r="O76" t="str">
-        <f>VLOOKUP(G76,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>STAR</v>
       </c>
       <c r="P76" t="str">
-        <f>VLOOKUP(H76,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>LSTVAR</v>
       </c>
       <c r="Q76" t="str">
-        <f>VLOOKUP(I76,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Ingênuo</v>
       </c>
       <c r="R76" t="str">
-        <f>VLOOKUP(J76,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>LSTVAR</v>
       </c>
       <c r="S76" t="str">
-        <f>VLOOKUP(K76,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Ingênuo</v>
       </c>
       <c r="T76" t="str">
-        <f>VLOOKUP(L76,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>LSTVAR</v>
       </c>
     </row>
@@ -9025,31 +9155,31 @@
         <v>34</v>
       </c>
       <c r="N77" t="str">
-        <f>VLOOKUP(F77,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>VAR</v>
       </c>
       <c r="O77" t="str">
-        <f>VLOOKUP(G77,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Ingênuo</v>
       </c>
       <c r="P77" t="str">
-        <f>VLOOKUP(H77,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Ingênuo</v>
       </c>
       <c r="Q77" t="str">
-        <f>VLOOKUP(I77,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Ingênuo</v>
       </c>
       <c r="R77" t="str">
-        <f>VLOOKUP(J77,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Ingênuo</v>
       </c>
       <c r="S77" t="str">
-        <f>VLOOKUP(K77,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Ingênuo</v>
       </c>
       <c r="T77" t="str">
-        <f>VLOOKUP(L77,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Ingênuo</v>
       </c>
     </row>
@@ -9082,31 +9212,31 @@
         <v>35</v>
       </c>
       <c r="N78" t="str">
-        <f>VLOOKUP(F78,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>LSTVAR</v>
       </c>
       <c r="O78" t="str">
-        <f>VLOOKUP(G78,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>ARIMA</v>
       </c>
       <c r="P78" t="str">
-        <f>VLOOKUP(H78,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="Q78" t="str">
-        <f>VLOOKUP(I78,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Ingênuo</v>
       </c>
       <c r="R78" t="str">
-        <f>VLOOKUP(J78,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="S78" t="str">
-        <f>VLOOKUP(K78,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="T78" t="str">
-        <f>VLOOKUP(L78,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Suavização Exponencial</v>
       </c>
     </row>
@@ -9139,31 +9269,31 @@
         <v>36</v>
       </c>
       <c r="N79" t="str">
-        <f>VLOOKUP(F79,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Combinação - Média</v>
       </c>
       <c r="O79" t="str">
-        <f>VLOOKUP(G79,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Combinação - Média</v>
       </c>
       <c r="P79" t="str">
-        <f>VLOOKUP(H79,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>STAR</v>
       </c>
       <c r="Q79" t="str">
-        <f>VLOOKUP(I79,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>STAR</v>
       </c>
       <c r="R79" t="str">
-        <f>VLOOKUP(J79,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>ARIMA</v>
       </c>
       <c r="S79" t="str">
-        <f>VLOOKUP(K79,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>ARIMA</v>
       </c>
       <c r="T79" t="str">
-        <f>VLOOKUP(L79,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Combinação - Mediana</v>
       </c>
     </row>
@@ -9196,31 +9326,31 @@
         <v>37</v>
       </c>
       <c r="N80" t="str">
-        <f>VLOOKUP(F80,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Ingênuo</v>
       </c>
       <c r="O80" t="str">
-        <f>VLOOKUP(G80,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>VAR</v>
       </c>
       <c r="P80" t="str">
-        <f>VLOOKUP(H80,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>ARIMA</v>
       </c>
       <c r="Q80" t="str">
-        <f>VLOOKUP(I80,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>VAR</v>
       </c>
       <c r="R80" t="str">
-        <f>VLOOKUP(J80,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>VAR</v>
       </c>
       <c r="S80" t="str">
-        <f>VLOOKUP(K80,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>VAR</v>
       </c>
       <c r="T80" t="str">
-        <f>VLOOKUP(L80,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Suavização Exponencial</v>
       </c>
     </row>
@@ -9253,31 +9383,31 @@
         <v>38</v>
       </c>
       <c r="N81" t="str">
-        <f>VLOOKUP(F81,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>LSTVAR</v>
       </c>
       <c r="O81" t="str">
-        <f>VLOOKUP(G81,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>LSTVAR</v>
       </c>
       <c r="P81" t="str">
-        <f>VLOOKUP(H81,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Ingênuo</v>
       </c>
       <c r="Q81" t="str">
-        <f>VLOOKUP(I81,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>ARIMA</v>
       </c>
       <c r="R81" t="str">
-        <f>VLOOKUP(J81,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Ingênuo</v>
       </c>
       <c r="S81" t="str">
-        <f>VLOOKUP(K81,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Ingênuo</v>
       </c>
       <c r="T81" t="str">
-        <f>VLOOKUP(L81,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Ingênuo</v>
       </c>
     </row>
@@ -9310,31 +9440,31 @@
         <v>39</v>
       </c>
       <c r="N82" t="str">
-        <f>VLOOKUP(F82,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Combinação - Média</v>
       </c>
       <c r="O82" t="str">
-        <f>VLOOKUP(G82,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Combinação - Média</v>
       </c>
       <c r="P82" t="str">
-        <f>VLOOKUP(H82,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Ingênuo</v>
       </c>
       <c r="Q82" t="str">
-        <f>VLOOKUP(I82,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="R82" t="str">
-        <f>VLOOKUP(J82,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>STAR</v>
       </c>
       <c r="S82" t="str">
-        <f>VLOOKUP(K82,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="T82" t="str">
-        <f>VLOOKUP(L82,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Combinação - Média</v>
       </c>
     </row>
@@ -9367,31 +9497,31 @@
         <v>40</v>
       </c>
       <c r="N83" t="str">
-        <f>VLOOKUP(F83,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Ingênuo</v>
       </c>
       <c r="O83" t="str">
-        <f>VLOOKUP(G83,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="P83" t="str">
-        <f>VLOOKUP(H83,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Combinação - Média</v>
       </c>
       <c r="Q83" t="str">
-        <f>VLOOKUP(I83,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Ingênuo</v>
       </c>
       <c r="R83" t="str">
-        <f>VLOOKUP(J83,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Combinação - Média</v>
       </c>
       <c r="S83" t="str">
-        <f>VLOOKUP(K83,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Combinação - Média</v>
       </c>
       <c r="T83" t="str">
-        <f>VLOOKUP(L83,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Combinação - Média</v>
       </c>
     </row>
@@ -9424,31 +9554,31 @@
         <v>41</v>
       </c>
       <c r="N84" t="str">
-        <f>VLOOKUP(F84,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Ingênuo</v>
       </c>
       <c r="O84" t="str">
-        <f>VLOOKUP(G84,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="P84" t="str">
-        <f>VLOOKUP(H84,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Ingênuo</v>
       </c>
       <c r="Q84" t="str">
-        <f>VLOOKUP(I84,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Ingênuo</v>
       </c>
       <c r="R84" t="str">
-        <f>VLOOKUP(J84,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="S84" t="str">
-        <f>VLOOKUP(K84,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="T84" t="str">
-        <f>VLOOKUP(L84,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Suavização Exponencial</v>
       </c>
     </row>
@@ -9481,31 +9611,31 @@
         <v>42</v>
       </c>
       <c r="N85" t="str">
-        <f>VLOOKUP(F85,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="O85" t="str">
-        <f>VLOOKUP(G85,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="P85" t="str">
-        <f>VLOOKUP(H85,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="Q85" t="str">
-        <f>VLOOKUP(I85,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="R85" t="str">
-        <f>VLOOKUP(J85,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="S85" t="str">
-        <f>VLOOKUP(K85,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="T85" t="str">
-        <f>VLOOKUP(L85,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>ARIMA</v>
       </c>
     </row>
@@ -9538,31 +9668,31 @@
         <v>43</v>
       </c>
       <c r="N86" t="str">
-        <f>VLOOKUP(F86,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>ARIMA</v>
       </c>
       <c r="O86" t="str">
-        <f>VLOOKUP(G86,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>ARIMA</v>
       </c>
       <c r="P86" t="str">
-        <f>VLOOKUP(H86,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>STAR</v>
       </c>
       <c r="Q86" t="str">
-        <f>VLOOKUP(I86,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="R86" t="str">
-        <f>VLOOKUP(J86,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="S86" t="str">
-        <f>VLOOKUP(K86,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>STAR</v>
       </c>
       <c r="T86" t="str">
-        <f>VLOOKUP(L86,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>LSTVAR</v>
       </c>
     </row>
@@ -9595,31 +9725,31 @@
         <v>44</v>
       </c>
       <c r="N87" t="str">
-        <f>VLOOKUP(F87,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="O87" t="str">
-        <f>VLOOKUP(G87,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="P87" t="str">
-        <f>VLOOKUP(H87,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>ARIMA</v>
       </c>
       <c r="Q87" t="str">
-        <f>VLOOKUP(I87,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="R87" t="str">
-        <f>VLOOKUP(J87,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>LSTVAR</v>
       </c>
       <c r="S87" t="str">
-        <f>VLOOKUP(K87,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>LSTVAR</v>
       </c>
       <c r="T87" t="str">
-        <f>VLOOKUP(L87,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>LSTVAR</v>
       </c>
     </row>
@@ -9652,82 +9782,82 @@
         <v>45</v>
       </c>
       <c r="N88" t="str">
-        <f>VLOOKUP(F88,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>STAR</v>
       </c>
       <c r="O88" t="str">
-        <f>VLOOKUP(G88,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>ARIMA</v>
       </c>
       <c r="P88" t="str">
-        <f>VLOOKUP(H88,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="Q88" t="str">
-        <f>VLOOKUP(I88,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="4"/>
         <v>STAR</v>
       </c>
       <c r="R88" t="str">
-        <f>VLOOKUP(J88,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="5"/>
         <v>STAR</v>
       </c>
       <c r="S88" t="str">
-        <f>VLOOKUP(K88,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="6"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="T88" t="str">
-        <f>VLOOKUP(L88,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="7"/>
         <v>STAR</v>
       </c>
     </row>
     <row r="91" spans="4:20">
       <c r="D91" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F91" t="s">
+        <v>158</v>
+      </c>
+      <c r="G91" t="s">
         <v>159</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>160</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>161</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>162</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>163</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>164</v>
       </c>
-      <c r="L91" t="s">
-        <v>165</v>
-      </c>
       <c r="M91" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N91" t="s">
+        <v>158</v>
+      </c>
+      <c r="O91" t="s">
         <v>159</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" t="s">
         <v>160</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
         <v>161</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="R91" t="s">
         <v>162</v>
       </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
         <v>163</v>
       </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>164</v>
-      </c>
-      <c r="T91" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="92" spans="4:20">
@@ -9759,31 +9889,31 @@
         <v>19</v>
       </c>
       <c r="N92" t="str">
-        <f>VLOOKUP(F92,desc_modelos, 2, FALSE)</f>
+        <f t="shared" ref="N92:N118" si="8">VLOOKUP(F92,desc_modelos, 2, FALSE)</f>
         <v>STAR</v>
       </c>
       <c r="O92" t="str">
-        <f>VLOOKUP(G92,desc_modelos, 2, FALSE)</f>
+        <f t="shared" ref="O92:O118" si="9">VLOOKUP(G92,desc_modelos, 2, FALSE)</f>
         <v>STAR</v>
       </c>
       <c r="P92" t="str">
-        <f>VLOOKUP(H92,desc_modelos, 2, FALSE)</f>
+        <f t="shared" ref="P92:P118" si="10">VLOOKUP(H92,desc_modelos, 2, FALSE)</f>
         <v>ARIMA</v>
       </c>
       <c r="Q92" t="str">
-        <f>VLOOKUP(I92,desc_modelos, 2, FALSE)</f>
+        <f t="shared" ref="Q92:Q118" si="11">VLOOKUP(I92,desc_modelos, 2, FALSE)</f>
         <v>ARIMA</v>
       </c>
       <c r="R92" t="str">
-        <f>VLOOKUP(J92,desc_modelos, 2, FALSE)</f>
+        <f t="shared" ref="R92:R118" si="12">VLOOKUP(J92,desc_modelos, 2, FALSE)</f>
         <v>STAR</v>
       </c>
       <c r="S92" t="str">
-        <f>VLOOKUP(K92,desc_modelos, 2, FALSE)</f>
+        <f t="shared" ref="S92:S118" si="13">VLOOKUP(K92,desc_modelos, 2, FALSE)</f>
         <v>ARIMA</v>
       </c>
       <c r="T92" t="str">
-        <f>VLOOKUP(L92,desc_modelos, 2, FALSE)</f>
+        <f t="shared" ref="T92:T118" si="14">VLOOKUP(L92,desc_modelos, 2, FALSE)</f>
         <v>ARIMA</v>
       </c>
     </row>
@@ -9816,31 +9946,31 @@
         <v>20</v>
       </c>
       <c r="N93" t="str">
-        <f>VLOOKUP(F93,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>LSTVAR</v>
       </c>
       <c r="O93" t="str">
-        <f>VLOOKUP(G93,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="P93" t="str">
-        <f>VLOOKUP(H93,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Ingênuo</v>
       </c>
       <c r="Q93" t="str">
-        <f>VLOOKUP(I93,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>STAR</v>
       </c>
       <c r="R93" t="str">
-        <f>VLOOKUP(J93,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Ingênuo</v>
       </c>
       <c r="S93" t="str">
-        <f>VLOOKUP(K93,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Ingênuo</v>
       </c>
       <c r="T93" t="str">
-        <f>VLOOKUP(L93,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>Suavização Exponencial</v>
       </c>
     </row>
@@ -9873,31 +10003,31 @@
         <v>21</v>
       </c>
       <c r="N94" t="str">
-        <f>VLOOKUP(F94,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>ARIMA</v>
       </c>
       <c r="O94" t="str">
-        <f>VLOOKUP(G94,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>ARIMA</v>
       </c>
       <c r="P94" t="str">
-        <f>VLOOKUP(H94,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Combinação - Média</v>
       </c>
       <c r="Q94" t="str">
-        <f>VLOOKUP(I94,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="R94" t="str">
-        <f>VLOOKUP(J94,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>LSTVAR</v>
       </c>
       <c r="S94" t="str">
-        <f>VLOOKUP(K94,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>LSTVAR</v>
       </c>
       <c r="T94" t="str">
-        <f>VLOOKUP(L94,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>VAR</v>
       </c>
     </row>
@@ -9930,31 +10060,31 @@
         <v>22</v>
       </c>
       <c r="N95" t="str">
-        <f>VLOOKUP(F95,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>ARIMA</v>
       </c>
       <c r="O95" t="str">
-        <f>VLOOKUP(G95,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>ARIMA</v>
       </c>
       <c r="P95" t="str">
-        <f>VLOOKUP(H95,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>ARIMA</v>
       </c>
       <c r="Q95" t="str">
-        <f>VLOOKUP(I95,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>ARIMA</v>
       </c>
       <c r="R95" t="str">
-        <f>VLOOKUP(J95,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>ARIMA</v>
       </c>
       <c r="S95" t="str">
-        <f>VLOOKUP(K95,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="T95" t="str">
-        <f>VLOOKUP(L95,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>ARIMA</v>
       </c>
     </row>
@@ -9987,31 +10117,31 @@
         <v>23</v>
       </c>
       <c r="N96" t="str">
-        <f>VLOOKUP(F96,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>ARIMA</v>
       </c>
       <c r="O96" t="str">
-        <f>VLOOKUP(G96,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>VAR</v>
       </c>
       <c r="P96" t="str">
-        <f>VLOOKUP(H96,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>ARIMA</v>
       </c>
       <c r="Q96" t="str">
-        <f>VLOOKUP(I96,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>ARIMA</v>
       </c>
       <c r="R96" t="str">
-        <f>VLOOKUP(J96,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>ARIMA</v>
       </c>
       <c r="S96" t="str">
-        <f>VLOOKUP(K96,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>VAR</v>
       </c>
       <c r="T96" t="str">
-        <f>VLOOKUP(L96,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>ARIMA</v>
       </c>
     </row>
@@ -10044,31 +10174,31 @@
         <v>24</v>
       </c>
       <c r="N97" t="str">
-        <f>VLOOKUP(F97,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>STAR</v>
       </c>
       <c r="O97" t="str">
-        <f>VLOOKUP(G97,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="P97" t="str">
-        <f>VLOOKUP(H97,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="Q97" t="str">
-        <f>VLOOKUP(I97,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>ARIMA</v>
       </c>
       <c r="R97" t="str">
-        <f>VLOOKUP(J97,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Combinação - Média</v>
       </c>
       <c r="S97" t="str">
-        <f>VLOOKUP(K97,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>ARIMA</v>
       </c>
       <c r="T97" t="str">
-        <f>VLOOKUP(L97,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>ARIMA</v>
       </c>
     </row>
@@ -10101,31 +10231,31 @@
         <v>25</v>
       </c>
       <c r="N98" t="str">
-        <f>VLOOKUP(F98,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Ingênuo</v>
       </c>
       <c r="O98" t="str">
-        <f>VLOOKUP(G98,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Ingênuo</v>
       </c>
       <c r="P98" t="str">
-        <f>VLOOKUP(H98,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="Q98" t="str">
-        <f>VLOOKUP(I98,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>LSTVAR</v>
       </c>
       <c r="R98" t="str">
-        <f>VLOOKUP(J98,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="S98" t="str">
-        <f>VLOOKUP(K98,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Combinação - Média</v>
       </c>
       <c r="T98" t="str">
-        <f>VLOOKUP(L98,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>Combinação - Mediana</v>
       </c>
     </row>
@@ -10158,31 +10288,31 @@
         <v>26</v>
       </c>
       <c r="N99" t="str">
-        <f>VLOOKUP(F99,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>ARIMA</v>
       </c>
       <c r="O99" t="str">
-        <f>VLOOKUP(G99,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>STAR</v>
       </c>
       <c r="P99" t="str">
-        <f>VLOOKUP(H99,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>LSTVAR</v>
       </c>
       <c r="Q99" t="str">
-        <f>VLOOKUP(I99,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>ARIMA</v>
       </c>
       <c r="R99" t="str">
-        <f>VLOOKUP(J99,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="S99" t="str">
-        <f>VLOOKUP(K99,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Ingênuo</v>
       </c>
       <c r="T99" t="str">
-        <f>VLOOKUP(L99,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>Suavização Exponencial</v>
       </c>
     </row>
@@ -10215,31 +10345,31 @@
         <v>27</v>
       </c>
       <c r="N100" t="str">
-        <f>VLOOKUP(F100,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="O100" t="str">
-        <f>VLOOKUP(G100,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="P100" t="str">
-        <f>VLOOKUP(H100,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>ARIMA</v>
       </c>
       <c r="Q100" t="str">
-        <f>VLOOKUP(I100,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="R100" t="str">
-        <f>VLOOKUP(J100,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="S100" t="str">
-        <f>VLOOKUP(K100,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="T100" t="str">
-        <f>VLOOKUP(L100,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>Ingênuo</v>
       </c>
     </row>
@@ -10272,31 +10402,31 @@
         <v>28</v>
       </c>
       <c r="N101" t="str">
-        <f>VLOOKUP(F101,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>LSTVAR</v>
       </c>
       <c r="O101" t="str">
-        <f>VLOOKUP(G101,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>LSTVAR</v>
       </c>
       <c r="P101" t="str">
-        <f>VLOOKUP(H101,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>LSTVAR</v>
       </c>
       <c r="Q101" t="str">
-        <f>VLOOKUP(I101,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Combinação - Média</v>
       </c>
       <c r="R101" t="str">
-        <f>VLOOKUP(J101,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>STAR</v>
       </c>
       <c r="S101" t="str">
-        <f>VLOOKUP(K101,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Ingênuo</v>
       </c>
       <c r="T101" t="str">
-        <f>VLOOKUP(L101,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>LSTVAR</v>
       </c>
     </row>
@@ -10329,31 +10459,31 @@
         <v>29</v>
       </c>
       <c r="N102" t="str">
-        <f>VLOOKUP(F102,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Ingênuo</v>
       </c>
       <c r="O102" t="str">
-        <f>VLOOKUP(G102,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Ingênuo</v>
       </c>
       <c r="P102" t="str">
-        <f>VLOOKUP(H102,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="Q102" t="str">
-        <f>VLOOKUP(I102,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Combinação - Média</v>
       </c>
       <c r="R102" t="str">
-        <f>VLOOKUP(J102,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Ingênuo</v>
       </c>
       <c r="S102" t="str">
-        <f>VLOOKUP(K102,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Ingênuo</v>
       </c>
       <c r="T102" t="str">
-        <f>VLOOKUP(L102,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>Ingênuo</v>
       </c>
     </row>
@@ -10386,31 +10516,31 @@
         <v>30</v>
       </c>
       <c r="N103" t="str">
-        <f>VLOOKUP(F103,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>LSTVAR</v>
       </c>
       <c r="O103" t="str">
-        <f>VLOOKUP(G103,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>STAR</v>
       </c>
       <c r="P103" t="str">
-        <f>VLOOKUP(H103,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Combinação - Média</v>
       </c>
       <c r="Q103" t="str">
-        <f>VLOOKUP(I103,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>LSTVAR</v>
       </c>
       <c r="R103" t="str">
-        <f>VLOOKUP(J103,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Combinação - Média</v>
       </c>
       <c r="S103" t="str">
-        <f>VLOOKUP(K103,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>STAR</v>
       </c>
       <c r="T103" t="str">
-        <f>VLOOKUP(L103,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>ARIMA</v>
       </c>
     </row>
@@ -10443,31 +10573,31 @@
         <v>31</v>
       </c>
       <c r="N104" t="str">
-        <f>VLOOKUP(F104,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Ingênuo</v>
       </c>
       <c r="O104" t="str">
-        <f>VLOOKUP(G104,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Ingênuo</v>
       </c>
       <c r="P104" t="str">
-        <f>VLOOKUP(H104,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Ingênuo</v>
       </c>
       <c r="Q104" t="str">
-        <f>VLOOKUP(I104,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="R104" t="str">
-        <f>VLOOKUP(J104,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Ingênuo</v>
       </c>
       <c r="S104" t="str">
-        <f>VLOOKUP(K104,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Ingênuo</v>
       </c>
       <c r="T104" t="str">
-        <f>VLOOKUP(L104,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>Ingênuo</v>
       </c>
     </row>
@@ -10500,31 +10630,31 @@
         <v>32</v>
       </c>
       <c r="N105" t="str">
-        <f>VLOOKUP(F105,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Combinação - Média</v>
       </c>
       <c r="O105" t="str">
-        <f>VLOOKUP(G105,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Combinação - Média</v>
       </c>
       <c r="P105" t="str">
-        <f>VLOOKUP(H105,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Combinação - Média</v>
       </c>
       <c r="Q105" t="str">
-        <f>VLOOKUP(I105,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="R105" t="str">
-        <f>VLOOKUP(J105,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>VAR</v>
       </c>
       <c r="S105" t="str">
-        <f>VLOOKUP(K105,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Ingênuo</v>
       </c>
       <c r="T105" t="str">
-        <f>VLOOKUP(L105,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>Combinação - Média</v>
       </c>
     </row>
@@ -10557,31 +10687,31 @@
         <v>33</v>
       </c>
       <c r="N106" t="str">
-        <f>VLOOKUP(F106,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>STAR</v>
       </c>
       <c r="O106" t="str">
-        <f>VLOOKUP(G106,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>ARIMA</v>
       </c>
       <c r="P106" t="str">
-        <f>VLOOKUP(H106,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Combinação - Média</v>
       </c>
       <c r="Q106" t="str">
-        <f>VLOOKUP(I106,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>STAR</v>
       </c>
       <c r="R106" t="str">
-        <f>VLOOKUP(J106,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="S106" t="str">
-        <f>VLOOKUP(K106,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Ingênuo</v>
       </c>
       <c r="T106" t="str">
-        <f>VLOOKUP(L106,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>Passeio Aleatório</v>
       </c>
     </row>
@@ -10614,31 +10744,31 @@
         <v>34</v>
       </c>
       <c r="N107" t="str">
-        <f>VLOOKUP(F107,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>VAR</v>
       </c>
       <c r="O107" t="str">
-        <f>VLOOKUP(G107,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>LSTVAR</v>
       </c>
       <c r="P107" t="str">
-        <f>VLOOKUP(H107,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Ingênuo</v>
       </c>
       <c r="Q107" t="str">
-        <f>VLOOKUP(I107,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Ingênuo</v>
       </c>
       <c r="R107" t="str">
-        <f>VLOOKUP(J107,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Ingênuo</v>
       </c>
       <c r="S107" t="str">
-        <f>VLOOKUP(K107,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Ingênuo</v>
       </c>
       <c r="T107" t="str">
-        <f>VLOOKUP(L107,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>Ingênuo</v>
       </c>
     </row>
@@ -10671,31 +10801,31 @@
         <v>35</v>
       </c>
       <c r="N108" t="str">
-        <f>VLOOKUP(F108,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>LSTVAR</v>
       </c>
       <c r="O108" t="str">
-        <f>VLOOKUP(G108,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>ARIMA</v>
       </c>
       <c r="P108" t="str">
-        <f>VLOOKUP(H108,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="Q108" t="str">
-        <f>VLOOKUP(I108,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>STAR</v>
       </c>
       <c r="R108" t="str">
-        <f>VLOOKUP(J108,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="S108" t="str">
-        <f>VLOOKUP(K108,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="T108" t="str">
-        <f>VLOOKUP(L108,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>Passeio Aleatório</v>
       </c>
     </row>
@@ -10728,31 +10858,31 @@
         <v>36</v>
       </c>
       <c r="N109" t="str">
-        <f>VLOOKUP(F109,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Combinação - Média</v>
       </c>
       <c r="O109" t="str">
-        <f>VLOOKUP(G109,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="P109" t="str">
-        <f>VLOOKUP(H109,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Ingênuo</v>
       </c>
       <c r="Q109" t="str">
-        <f>VLOOKUP(I109,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>STAR</v>
       </c>
       <c r="R109" t="str">
-        <f>VLOOKUP(J109,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>ARIMA</v>
       </c>
       <c r="S109" t="str">
-        <f>VLOOKUP(K109,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>STAR</v>
       </c>
       <c r="T109" t="str">
-        <f>VLOOKUP(L109,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>Ingênuo</v>
       </c>
     </row>
@@ -10785,31 +10915,31 @@
         <v>37</v>
       </c>
       <c r="N110" t="str">
-        <f>VLOOKUP(F110,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Ingênuo</v>
       </c>
       <c r="O110" t="str">
-        <f>VLOOKUP(G110,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>STAR</v>
       </c>
       <c r="P110" t="str">
-        <f>VLOOKUP(H110,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>LSTVAR</v>
       </c>
       <c r="Q110" t="str">
-        <f>VLOOKUP(I110,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>VAR</v>
       </c>
       <c r="R110" t="str">
-        <f>VLOOKUP(J110,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="S110" t="str">
-        <f>VLOOKUP(K110,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="T110" t="str">
-        <f>VLOOKUP(L110,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>ARIMA</v>
       </c>
     </row>
@@ -10842,31 +10972,31 @@
         <v>38</v>
       </c>
       <c r="N111" t="str">
-        <f>VLOOKUP(F111,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>LSTVAR</v>
       </c>
       <c r="O111" t="str">
-        <f>VLOOKUP(G111,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>LSTVAR</v>
       </c>
       <c r="P111" t="str">
-        <f>VLOOKUP(H111,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Ingênuo</v>
       </c>
       <c r="Q111" t="str">
-        <f>VLOOKUP(I111,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Ingênuo</v>
       </c>
       <c r="R111" t="str">
-        <f>VLOOKUP(J111,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Ingênuo</v>
       </c>
       <c r="S111" t="str">
-        <f>VLOOKUP(K111,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Ingênuo</v>
       </c>
       <c r="T111" t="str">
-        <f>VLOOKUP(L111,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>Ingênuo</v>
       </c>
     </row>
@@ -10899,31 +11029,31 @@
         <v>39</v>
       </c>
       <c r="N112" t="str">
-        <f>VLOOKUP(F112,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Combinação - Média</v>
       </c>
       <c r="O112" t="str">
-        <f>VLOOKUP(G112,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Combinação - Média</v>
       </c>
       <c r="P112" t="str">
-        <f>VLOOKUP(H112,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>VAR</v>
       </c>
       <c r="Q112" t="str">
-        <f>VLOOKUP(I112,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="R112" t="str">
-        <f>VLOOKUP(J112,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>STAR</v>
       </c>
       <c r="S112" t="str">
-        <f>VLOOKUP(K112,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>STAR</v>
       </c>
       <c r="T112" t="str">
-        <f>VLOOKUP(L112,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>VAR</v>
       </c>
     </row>
@@ -10956,31 +11086,31 @@
         <v>40</v>
       </c>
       <c r="N113" t="str">
-        <f>VLOOKUP(F113,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Ingênuo</v>
       </c>
       <c r="O113" t="str">
-        <f>VLOOKUP(G113,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="P113" t="str">
-        <f>VLOOKUP(H113,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Combinação - Média</v>
       </c>
       <c r="Q113" t="str">
-        <f>VLOOKUP(I113,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>ARIMA</v>
       </c>
       <c r="R113" t="str">
-        <f>VLOOKUP(J113,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Ingênuo</v>
       </c>
       <c r="S113" t="str">
-        <f>VLOOKUP(K113,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="T113" t="str">
-        <f>VLOOKUP(L113,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>VAR</v>
       </c>
     </row>
@@ -11013,31 +11143,31 @@
         <v>41</v>
       </c>
       <c r="N114" t="str">
-        <f>VLOOKUP(F114,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Ingênuo</v>
       </c>
       <c r="O114" t="str">
-        <f>VLOOKUP(G114,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Combinação - Média</v>
       </c>
       <c r="P114" t="str">
-        <f>VLOOKUP(H114,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Ingênuo</v>
       </c>
       <c r="Q114" t="str">
-        <f>VLOOKUP(I114,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>ARIMA</v>
       </c>
       <c r="R114" t="str">
-        <f>VLOOKUP(J114,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="S114" t="str">
-        <f>VLOOKUP(K114,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Ingênuo</v>
       </c>
       <c r="T114" t="str">
-        <f>VLOOKUP(L114,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>Ingênuo</v>
       </c>
     </row>
@@ -11070,31 +11200,31 @@
         <v>42</v>
       </c>
       <c r="N115" t="str">
-        <f>VLOOKUP(F115,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="O115" t="str">
-        <f>VLOOKUP(G115,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>VAR</v>
       </c>
       <c r="P115" t="str">
-        <f>VLOOKUP(H115,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="Q115" t="str">
-        <f>VLOOKUP(I115,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="R115" t="str">
-        <f>VLOOKUP(J115,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="S115" t="str">
-        <f>VLOOKUP(K115,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="T115" t="str">
-        <f>VLOOKUP(L115,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>ARIMA</v>
       </c>
     </row>
@@ -11127,31 +11257,31 @@
         <v>43</v>
       </c>
       <c r="N116" t="str">
-        <f>VLOOKUP(F116,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>ARIMA</v>
       </c>
       <c r="O116" t="str">
-        <f>VLOOKUP(G116,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="P116" t="str">
-        <f>VLOOKUP(H116,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>STAR</v>
       </c>
       <c r="Q116" t="str">
-        <f>VLOOKUP(I116,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>ARIMA</v>
       </c>
       <c r="R116" t="str">
-        <f>VLOOKUP(J116,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="S116" t="str">
-        <f>VLOOKUP(K116,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Combinação - Média</v>
       </c>
       <c r="T116" t="str">
-        <f>VLOOKUP(L116,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>VAR</v>
       </c>
     </row>
@@ -11184,31 +11314,31 @@
         <v>44</v>
       </c>
       <c r="N117" t="str">
-        <f>VLOOKUP(F117,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="O117" t="str">
-        <f>VLOOKUP(G117,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="P117" t="str">
-        <f>VLOOKUP(H117,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Suavização Exponencial</v>
       </c>
       <c r="Q117" t="str">
-        <f>VLOOKUP(I117,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>LSTVAR</v>
       </c>
       <c r="R117" t="str">
-        <f>VLOOKUP(J117,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>LSTVAR</v>
       </c>
       <c r="S117" t="str">
-        <f>VLOOKUP(K117,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Combinação - Média</v>
       </c>
       <c r="T117" t="str">
-        <f>VLOOKUP(L117,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>Passeio Aleatório</v>
       </c>
     </row>
@@ -11241,46 +11371,41 @@
         <v>45</v>
       </c>
       <c r="N118" t="str">
-        <f>VLOOKUP(F118,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="8"/>
         <v>STAR</v>
       </c>
       <c r="O118" t="str">
-        <f>VLOOKUP(G118,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="9"/>
         <v>ARIMA</v>
       </c>
       <c r="P118" t="str">
-        <f>VLOOKUP(H118,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="10"/>
         <v>Passeio Aleatório</v>
       </c>
       <c r="Q118" t="str">
-        <f>VLOOKUP(I118,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="11"/>
         <v>ARIMA</v>
       </c>
       <c r="R118" t="str">
-        <f>VLOOKUP(J118,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="12"/>
         <v>ARIMA</v>
       </c>
       <c r="S118" t="str">
-        <f>VLOOKUP(K118,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>Combinação - Mediana</v>
       </c>
       <c r="T118" t="str">
-        <f>VLOOKUP(L118,desc_modelos, 2, FALSE)</f>
+        <f t="shared" si="14"/>
         <v>ARIMA</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="D25:D26"/>
@@ -11289,6 +11414,11 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
@@ -11296,11 +11426,11 @@
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -11317,7 +11447,7 @@
   <dimension ref="C2:I61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D3" sqref="D3:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11331,24 +11461,24 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="3:7" ht="11.25" customHeight="1">
-      <c r="D3" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="4" spans="3:7" ht="26" customHeight="1">
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="3:7" ht="14" customHeight="1">
       <c r="C5" t="s">
@@ -11358,15 +11488,15 @@
         <f t="shared" ref="D5:D31" si="0">VLOOKUP(C5,desc_estados,2,FALSE)</f>
         <v>Acre</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="35">
         <f>VLOOKUP($C5,$D$34:$I$61,COLUMN(D:D),FALSE)</f>
         <v>2014</v>
       </c>
-      <c r="F5" s="42" t="str">
+      <c r="F5" s="35" t="str">
         <f t="shared" ref="F5:G5" si="1">VLOOKUP($C5,$D$34:$I$61,COLUMN(E:E),FALSE)</f>
         <v>(0.207,0.342]</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="33">
         <f t="shared" si="1"/>
         <v>0.20770513956294975</v>
       </c>
@@ -11379,15 +11509,15 @@
         <f t="shared" si="0"/>
         <v>Alagoas</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="35">
         <f t="shared" ref="E6:G31" si="2">VLOOKUP($C6,$D$34:$I$61,COLUMN(D:D),FALSE)</f>
         <v>2014</v>
       </c>
-      <c r="F6" s="42" t="str">
+      <c r="F6" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.477,0.612]</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="33">
         <f t="shared" si="2"/>
         <v>0.4921096733684861</v>
       </c>
@@ -11400,15 +11530,15 @@
         <f t="shared" si="0"/>
         <v>Amazonas</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F7" s="42" t="str">
+      <c r="F7" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.612,0.746]</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="33">
         <f t="shared" si="2"/>
         <v>0.70372173056158482</v>
       </c>
@@ -11421,15 +11551,15 @@
         <f t="shared" si="0"/>
         <v>Amapá</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F8" s="42" t="str">
+      <c r="F8" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.207,0.342]</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="33">
         <f t="shared" si="2"/>
         <v>0.21136657903233166</v>
       </c>
@@ -11442,15 +11572,15 @@
         <f t="shared" si="0"/>
         <v>Bahia</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F9" s="42" t="str">
+      <c r="F9" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.612,0.746]</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="33">
         <f t="shared" si="2"/>
         <v>0.67045423454306941</v>
       </c>
@@ -11463,15 +11593,15 @@
         <f t="shared" si="0"/>
         <v>Ceará</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="35">
         <f t="shared" si="2"/>
         <v>2013</v>
       </c>
-      <c r="F10" s="42" t="str">
+      <c r="F10" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.612,0.746]</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="33">
         <f t="shared" si="2"/>
         <v>0.63842190269086274</v>
       </c>
@@ -11484,15 +11614,15 @@
         <f t="shared" si="0"/>
         <v>Distrito Federal</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F11" s="42" t="str">
+      <c r="F11" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.342,0.477]</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="33">
         <f t="shared" si="2"/>
         <v>0.37364941260850948</v>
       </c>
@@ -11505,15 +11635,15 @@
         <f t="shared" si="0"/>
         <v>Espírito Santo</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F12" s="42" t="str">
+      <c r="F12" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.612,0.746]</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="33">
         <f t="shared" si="2"/>
         <v>0.73782718227200139</v>
       </c>
@@ -11526,15 +11656,15 @@
         <f t="shared" si="0"/>
         <v>Goiás</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F13" s="42" t="str">
+      <c r="F13" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.746,0.882]</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="33">
         <f t="shared" si="2"/>
         <v>0.77783030683024101</v>
       </c>
@@ -11547,15 +11677,15 @@
         <f t="shared" si="0"/>
         <v>Maranhão</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F14" s="42" t="str">
+      <c r="F14" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.342,0.477]</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="33">
         <f t="shared" si="2"/>
         <v>0.46067852485087668</v>
       </c>
@@ -11568,15 +11698,15 @@
         <f t="shared" si="0"/>
         <v>Minas Gerais</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F15" s="42" t="str">
+      <c r="F15" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.746,0.882]</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="33">
         <f t="shared" si="2"/>
         <v>0.78516612958982679</v>
       </c>
@@ -11589,15 +11719,15 @@
         <f t="shared" si="0"/>
         <v>Mato Grosso do Sul</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F16" s="42" t="str">
+      <c r="F16" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.746,0.882]</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="33">
         <f t="shared" si="2"/>
         <v>0.83593126144119112</v>
       </c>
@@ -11610,15 +11740,15 @@
         <f t="shared" si="0"/>
         <v>Mato Grosso</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F17" s="42" t="str">
+      <c r="F17" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.612,0.746]</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="33">
         <f t="shared" si="2"/>
         <v>0.63645165907833745</v>
       </c>
@@ -11631,15 +11761,15 @@
         <f t="shared" si="0"/>
         <v>Pará</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F18" s="42" t="str">
+      <c r="F18" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.477,0.612]</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="33">
         <f t="shared" si="2"/>
         <v>0.58291079256684786</v>
       </c>
@@ -11652,15 +11782,15 @@
         <f t="shared" si="0"/>
         <v>Paraíba</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="35">
         <f t="shared" si="2"/>
         <v>2013</v>
       </c>
-      <c r="F19" s="42" t="str">
+      <c r="F19" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.477,0.612]</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="33">
         <f t="shared" si="2"/>
         <v>0.54459388966357458</v>
       </c>
@@ -11673,15 +11803,15 @@
         <f t="shared" si="0"/>
         <v>Pernambuco</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F20" s="42" t="str">
+      <c r="F20" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.612,0.746]</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="33">
         <f t="shared" si="2"/>
         <v>0.67657593573209307</v>
       </c>
@@ -11694,15 +11824,15 @@
         <f t="shared" si="0"/>
         <v>Piauí</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F21" s="42" t="str">
+      <c r="F21" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.207,0.342]</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="33">
         <f t="shared" si="2"/>
         <v>0.28589561820420878</v>
       </c>
@@ -11715,15 +11845,15 @@
         <f t="shared" si="0"/>
         <v>Paraná</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F22" s="42" t="str">
+      <c r="F22" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.746,0.882]</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="33">
         <f t="shared" si="2"/>
         <v>0.80040204350057098</v>
       </c>
@@ -11736,15 +11866,15 @@
         <f t="shared" si="0"/>
         <v>Rio de Janeiro</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F23" s="42" t="str">
+      <c r="F23" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.612,0.746]</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="33">
         <f t="shared" si="2"/>
         <v>0.68570721143738311</v>
       </c>
@@ -11757,15 +11887,15 @@
         <f t="shared" si="0"/>
         <v>Rio Grande do Norte</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="35">
         <f t="shared" si="2"/>
         <v>2013</v>
       </c>
-      <c r="F24" s="42" t="str">
+      <c r="F24" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.477,0.612]</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="33">
         <f t="shared" si="2"/>
         <v>0.5410568900176701</v>
       </c>
@@ -11778,15 +11908,15 @@
         <f t="shared" si="0"/>
         <v>Rondônia</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F25" s="42" t="str">
+      <c r="F25" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.477,0.612]</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="33">
         <f t="shared" si="2"/>
         <v>0.54521964278576907</v>
       </c>
@@ -11799,15 +11929,15 @@
         <f t="shared" si="0"/>
         <v>Roraima</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F26" s="42" t="str">
+      <c r="F26" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.207,0.342]</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="33">
         <f t="shared" si="2"/>
         <v>0.21630524055646061</v>
       </c>
@@ -11820,15 +11950,15 @@
         <f t="shared" si="0"/>
         <v>Rio Grande do Sul</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F27" s="42" t="str">
+      <c r="F27" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.746,0.882]</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="33">
         <f t="shared" si="2"/>
         <v>0.88094578616344454</v>
       </c>
@@ -11841,15 +11971,15 @@
         <f t="shared" si="0"/>
         <v>Santa Catarina</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F28" s="42" t="str">
+      <c r="F28" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.746,0.882]</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="33">
         <f t="shared" si="2"/>
         <v>0.87529382188647642</v>
       </c>
@@ -11862,15 +11992,15 @@
         <f t="shared" si="0"/>
         <v>Sergipe</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F29" s="42" t="str">
+      <c r="F29" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.342,0.477]</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="33">
         <f t="shared" si="2"/>
         <v>0.43653890642226018</v>
       </c>
@@ -11883,15 +12013,15 @@
         <f t="shared" si="0"/>
         <v>São Paulo</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="35">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F30" s="42" t="str">
+      <c r="F30" s="35" t="str">
         <f t="shared" si="2"/>
         <v>(0.746,0.882]</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="33">
         <f t="shared" si="2"/>
         <v>0.86369579194466928</v>
       </c>
@@ -11904,37 +12034,37 @@
         <f t="shared" si="0"/>
         <v>Tocantins</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="36">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F31" s="43" t="str">
+      <c r="F31" s="36" t="str">
         <f t="shared" si="2"/>
         <v>(0.207,0.342]</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="37">
         <f t="shared" si="2"/>
         <v>0.30956533688805082</v>
       </c>
     </row>
     <row r="34" spans="4:9">
       <c r="D34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" t="s">
         <v>168</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" t="s">
         <v>169</v>
       </c>
-      <c r="F34" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>170</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>171</v>
-      </c>
-      <c r="I34" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="35" spans="4:9">
@@ -12499,10 +12629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L35"/>
+  <dimension ref="B2:L46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12514,45 +12644,45 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="2:10" ht="33">
-      <c r="C4" s="33"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -12890,25 +13020,25 @@
     </row>
     <row r="15" spans="2:10">
       <c r="D15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -13210,28 +13340,28 @@
     </row>
     <row r="26" spans="3:12">
       <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
         <v>114</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>115</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>116</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>117</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>118</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>119</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>120</v>
-      </c>
-      <c r="J26" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="27" spans="3:12">
@@ -13485,6 +13615,236 @@
       </c>
       <c r="K35" s="26"/>
       <c r="L35" s="27"/>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="16">
+        <f>F5/$E5</f>
+        <v>1.2791617577315475</v>
+      </c>
+      <c r="G38" s="16">
+        <f t="shared" ref="G38:J38" si="20">G5/$E5</f>
+        <v>1.316834813201869</v>
+      </c>
+      <c r="H38" s="16">
+        <f t="shared" si="20"/>
+        <v>1.2239600183323858</v>
+      </c>
+      <c r="I38" s="16">
+        <f t="shared" si="20"/>
+        <v>1.6112856699375935</v>
+      </c>
+      <c r="J38" s="16">
+        <f t="shared" si="20"/>
+        <v>1.2862484518406783</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" ref="F39:J46" si="21">F6/$E6</f>
+        <v>1.219505331653117</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="21"/>
+        <v>1.449448475664576</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="21"/>
+        <v>1.2720480054656162</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="21"/>
+        <v>1.4986365290531156</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="21"/>
+        <v>1.2879276683672853</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="16">
+        <f t="shared" si="21"/>
+        <v>1.2476362559977303</v>
+      </c>
+      <c r="G40" s="16">
+        <f t="shared" si="21"/>
+        <v>1.4380467875263561</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" si="21"/>
+        <v>1.3056259474048733</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="21"/>
+        <v>1.6156953131517882</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="21"/>
+        <v>1.3214008608161472</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="16">
+        <f t="shared" si="21"/>
+        <v>1.3084141348259157</v>
+      </c>
+      <c r="G41" s="16">
+        <f t="shared" si="21"/>
+        <v>1.5119358009941968</v>
+      </c>
+      <c r="H41" s="16">
+        <f t="shared" si="21"/>
+        <v>1.4017105354206176</v>
+      </c>
+      <c r="I41" s="16">
+        <f t="shared" si="21"/>
+        <v>1.7843812073888179</v>
+      </c>
+      <c r="J41" s="16">
+        <f t="shared" si="21"/>
+        <v>1.4012883357259094</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="16">
+        <f t="shared" si="21"/>
+        <v>1.2386331908074051</v>
+      </c>
+      <c r="G42" s="16">
+        <f t="shared" si="21"/>
+        <v>1.337471091470636</v>
+      </c>
+      <c r="H42" s="16">
+        <f t="shared" si="21"/>
+        <v>1.1850829445884155</v>
+      </c>
+      <c r="I42" s="16">
+        <f t="shared" si="21"/>
+        <v>1.4581301451510442</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" si="21"/>
+        <v>1.2438634744035</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12">
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="16">
+        <f t="shared" si="21"/>
+        <v>1.1679936833286411</v>
+      </c>
+      <c r="G43" s="16">
+        <f t="shared" si="21"/>
+        <v>1.3035763904530133</v>
+      </c>
+      <c r="H43" s="16">
+        <f t="shared" si="21"/>
+        <v>1.3041494571948935</v>
+      </c>
+      <c r="I43" s="16">
+        <f t="shared" si="21"/>
+        <v>1.4957805840661322</v>
+      </c>
+      <c r="J43" s="16">
+        <f t="shared" si="21"/>
+        <v>1.2543000230085317</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12">
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="16">
+        <f t="shared" si="21"/>
+        <v>1.4008157884146373</v>
+      </c>
+      <c r="G44" s="16">
+        <f t="shared" si="21"/>
+        <v>1.8093909933007573</v>
+      </c>
+      <c r="H44" s="16">
+        <f t="shared" si="21"/>
+        <v>1.1998509504181369</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" si="21"/>
+        <v>1.6460615010164803</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" si="21"/>
+        <v>1.4112238466300004</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12">
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="16">
+        <f t="shared" si="21"/>
+        <v>1.3390207009298494</v>
+      </c>
+      <c r="G45" s="16">
+        <f t="shared" si="21"/>
+        <v>1.6194765142719487</v>
+      </c>
+      <c r="H45" s="16">
+        <f t="shared" si="21"/>
+        <v>1.6113379376517478</v>
+      </c>
+      <c r="I45" s="16">
+        <f t="shared" si="21"/>
+        <v>1.9709943370837262</v>
+      </c>
+      <c r="J45" s="16">
+        <f t="shared" si="21"/>
+        <v>1.508165897987457</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="16">
+        <f t="shared" si="21"/>
+        <v>1.0493149540270847</v>
+      </c>
+      <c r="G46" s="16">
+        <f t="shared" si="21"/>
+        <v>1.0538754979402418</v>
+      </c>
+      <c r="H46" s="16">
+        <f t="shared" si="21"/>
+        <v>1.553368903235784</v>
+      </c>
+      <c r="I46" s="16">
+        <f t="shared" si="21"/>
+        <v>1.4349329379716425</v>
+      </c>
+      <c r="J46" s="16">
+        <f t="shared" si="21"/>
+        <v>1.2182984586349526</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B33:I41">
@@ -13520,60 +13880,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L35"/>
+  <dimension ref="B2:L46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
     <col min="5" max="10" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="2:10" ht="33">
-      <c r="C4" s="33"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -13911,25 +14271,25 @@
     </row>
     <row r="15" spans="2:10">
       <c r="D15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -14231,28 +14591,28 @@
     </row>
     <row r="26" spans="3:12">
       <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
         <v>114</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>115</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>116</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>117</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>118</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>119</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>120</v>
-      </c>
-      <c r="J26" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="27" spans="3:12">
@@ -14506,6 +14866,209 @@
       </c>
       <c r="K35" s="26"/>
       <c r="L35" s="27"/>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="16">
+        <f>F5/$E5</f>
+        <v>1.4891795808989692</v>
+      </c>
+      <c r="G38" s="16">
+        <f t="shared" ref="G38:J38" si="5">G5/$E5</f>
+        <v>0.79584220729984656</v>
+      </c>
+      <c r="H38" s="16">
+        <f t="shared" si="5"/>
+        <v>1.4735296244392728</v>
+      </c>
+      <c r="I38" s="16">
+        <f t="shared" si="5"/>
+        <v>2.3078536047179092</v>
+      </c>
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" ref="F39:J46" si="6">F6/$E6</f>
+        <v>1.7837810418261879</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="6"/>
+        <v>1.7600378152347151</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="6"/>
+        <v>1.9353532795210819</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="6"/>
+        <v>2.30309140556811</v>
+      </c>
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="16">
+        <f t="shared" si="6"/>
+        <v>1.9114597674160967</v>
+      </c>
+      <c r="G40" s="16">
+        <f t="shared" si="6"/>
+        <v>1.6371513778810611</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" si="6"/>
+        <v>1.9555020190269068</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="6"/>
+        <v>2.4847909267425115</v>
+      </c>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="16">
+        <f t="shared" si="6"/>
+        <v>1.6541854223258412</v>
+      </c>
+      <c r="G41" s="16">
+        <f t="shared" si="6"/>
+        <v>1.4895058584164744</v>
+      </c>
+      <c r="H41" s="16">
+        <f t="shared" si="6"/>
+        <v>1.8348072469632968</v>
+      </c>
+      <c r="I41" s="16">
+        <f t="shared" si="6"/>
+        <v>2.3544901260225197</v>
+      </c>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="16">
+        <f t="shared" si="6"/>
+        <v>1.5072727659345257</v>
+      </c>
+      <c r="G42" s="16">
+        <f t="shared" si="6"/>
+        <v>1.3175601258718588</v>
+      </c>
+      <c r="H42" s="16">
+        <f t="shared" si="6"/>
+        <v>1.3585333858757489</v>
+      </c>
+      <c r="I42" s="16">
+        <f t="shared" si="6"/>
+        <v>1.8806692048163975</v>
+      </c>
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" spans="3:12">
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="16">
+        <f t="shared" si="6"/>
+        <v>1.5390331101666936</v>
+      </c>
+      <c r="G43" s="16">
+        <f t="shared" si="6"/>
+        <v>1.5057430619234806</v>
+      </c>
+      <c r="H43" s="16">
+        <f t="shared" si="6"/>
+        <v>1.8728422217296696</v>
+      </c>
+      <c r="I43" s="16">
+        <f t="shared" si="6"/>
+        <v>2.1364456329924115</v>
+      </c>
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" spans="3:12">
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="16">
+        <f t="shared" si="6"/>
+        <v>1.9221607914724781</v>
+      </c>
+      <c r="G44" s="16">
+        <f t="shared" si="6"/>
+        <v>1.5837806410738955</v>
+      </c>
+      <c r="H44" s="16">
+        <f t="shared" si="6"/>
+        <v>1.6845417136005689</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" si="6"/>
+        <v>2.3613649657311164</v>
+      </c>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" spans="3:12">
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="16">
+        <f t="shared" si="6"/>
+        <v>1.861272186132036</v>
+      </c>
+      <c r="G45" s="16">
+        <f t="shared" si="6"/>
+        <v>1.9625019134547619</v>
+      </c>
+      <c r="H45" s="16">
+        <f t="shared" si="6"/>
+        <v>2.3422599583834303</v>
+      </c>
+      <c r="I45" s="16">
+        <f t="shared" si="6"/>
+        <v>2.8610087993680171</v>
+      </c>
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="16">
+        <f t="shared" si="6"/>
+        <v>1.0758164066030114</v>
+      </c>
+      <c r="G46" s="16">
+        <f t="shared" si="6"/>
+        <v>1.1413546960581769</v>
+      </c>
+      <c r="H46" s="16">
+        <f t="shared" si="6"/>
+        <v>1.8052338760512563</v>
+      </c>
+      <c r="I46" s="16">
+        <f t="shared" si="6"/>
+        <v>1.5815801494235262</v>
+      </c>
+      <c r="J46" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14541,7 +15104,7 @@
   <dimension ref="B2:P35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14552,45 +15115,45 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="2:10" ht="36" customHeight="1">
-      <c r="C4" s="33"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -14928,25 +15491,25 @@
     </row>
     <row r="15" spans="2:10">
       <c r="D15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -15298,28 +15861,28 @@
     </row>
     <row r="26" spans="3:16">
       <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
         <v>114</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>115</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>116</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>117</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>118</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>119</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>120</v>
-      </c>
-      <c r="J26" t="s">
-        <v>121</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
@@ -15601,7 +16164,7 @@
   <dimension ref="B2:P35"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C3" sqref="C3:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15612,45 +16175,45 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="2:10" ht="33">
-      <c r="C4" s="33"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -15988,25 +16551,25 @@
     </row>
     <row r="15" spans="2:10">
       <c r="D15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -16358,28 +16921,28 @@
     </row>
     <row r="26" spans="3:16">
       <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
         <v>114</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>115</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>116</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>117</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>118</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>119</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>120</v>
-      </c>
-      <c r="J26" t="s">
-        <v>121</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
@@ -16658,7 +17221,7 @@
   <dimension ref="C2:K89"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -16670,45 +17233,45 @@
   <sheetData>
     <row r="2" spans="3:11">
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="3:11" ht="11.25" customHeight="1">
-      <c r="D3" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="3:11" ht="36" customHeight="1">
-      <c r="D4" s="36"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="3:11" ht="14" customHeight="1">
@@ -17712,25 +18275,25 @@
     </row>
     <row r="33" spans="4:11">
       <c r="E33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="4:11">
@@ -18626,28 +19189,28 @@
     </row>
     <row r="62" spans="4:11">
       <c r="D62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" t="s">
         <v>115</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>116</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>117</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>118</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>119</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>120</v>
-      </c>
-      <c r="K62" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="63" spans="4:11">
@@ -19395,7 +19958,7 @@
   <dimension ref="C2:K89"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19407,45 +19970,45 @@
   <sheetData>
     <row r="2" spans="3:11">
       <c r="D2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="3:11" ht="11.25" customHeight="1">
-      <c r="D3" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="3:11" ht="36" customHeight="1">
-      <c r="D4" s="36"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="3:11" ht="14" customHeight="1">
@@ -20449,25 +21012,25 @@
     </row>
     <row r="33" spans="4:11">
       <c r="E33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="4:11">
@@ -21363,28 +21926,28 @@
     </row>
     <row r="62" spans="4:11">
       <c r="D62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" t="s">
         <v>115</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>116</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>117</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>118</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>119</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>120</v>
-      </c>
-      <c r="K62" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="63" spans="4:11">
@@ -22132,7 +22695,7 @@
   <dimension ref="C2:K89"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:K31"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22144,45 +22707,45 @@
   <sheetData>
     <row r="2" spans="3:11">
       <c r="D2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="3:11" ht="11.25" customHeight="1">
-      <c r="D3" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="3:11" ht="36" customHeight="1">
-      <c r="D4" s="36"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="3:11" ht="14" customHeight="1">
@@ -23186,25 +23749,25 @@
     </row>
     <row r="33" spans="4:11">
       <c r="E33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="4:11">
@@ -24100,28 +24663,28 @@
     </row>
     <row r="62" spans="4:11">
       <c r="D62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" t="s">
         <v>115</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>116</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>117</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>118</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>119</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>120</v>
-      </c>
-      <c r="K62" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="63" spans="4:11">
@@ -24869,7 +25432,7 @@
   <dimension ref="C2:K89"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -24881,45 +25444,45 @@
   <sheetData>
     <row r="2" spans="3:11">
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="3:11" ht="11.25" customHeight="1">
-      <c r="D3" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="3:11" ht="36" customHeight="1">
-      <c r="D4" s="36"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="3:11" ht="14" customHeight="1">
@@ -25923,25 +26486,25 @@
     </row>
     <row r="33" spans="4:11">
       <c r="E33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="4:11">
@@ -26837,28 +27400,28 @@
     </row>
     <row r="62" spans="4:11">
       <c r="D62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" t="s">
         <v>115</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>116</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>117</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>118</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>119</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>120</v>
-      </c>
-      <c r="K62" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="63" spans="4:11">
